--- a/config_PIC24FJ64GB002_UsbStudy_02.xlsx
+++ b/config_PIC24FJ64GB002_UsbStudy_02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\20190714_USBtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mura01\Google ドライブ\PIC24F\20190829_USBMSCtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B44DB3-2688-4175-8E06-442EF752C035}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD4E13-9F12-4A65-AE28-39E521A7173A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="480" windowWidth="24900" windowHeight="15120" tabRatio="500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="480" windowWidth="24900" windowHeight="15120" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
     <definedName name="zz" localSheetId="4">#REF!</definedName>
     <definedName name="zz">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -250,7 +250,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="V10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
+    <comment ref="V10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
+    <comment ref="V14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
+    <comment ref="W20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000B000000}">
+    <comment ref="W27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
+    <comment ref="V28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -325,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000C000000}">
+    <comment ref="W37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
+    <comment ref="V38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000D000000}">
+    <comment ref="W48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S198" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="S198" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R199" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="R199" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S206" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="S206" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -430,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R207" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="R207" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -4435,15 +4435,6 @@
   </cellStyleXfs>
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4635,6 +4626,15 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -9457,14 +9457,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>720</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>67680</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>55439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9500,14 +9500,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>10080</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>152280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>29520</xdr:colOff>
-      <xdr:row>281</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>74162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9641,13 +9641,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>720</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>227160</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9684,14 +9684,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>379800</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>142199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9727,13 +9727,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>203760</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>528480</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9770,13 +9770,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>249120</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>150480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9809,406 +9809,336 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>306000</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:colOff>49728</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>156689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>290880</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:colOff>282648</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>82486</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="画像 4">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1712520" y="25121880"/>
-          <a:ext cx="7322760" cy="1827720"/>
+          <a:off x="1580149" y="30979161"/>
+          <a:ext cx="8195392" cy="9172538"/>
+          <a:chOff x="1798581" y="24281484"/>
+          <a:chExt cx="8290133" cy="8170387"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="96" name="画像 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1851861" y="24621768"/>
+            <a:ext cx="8042093" cy="1792863"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="97" name="画像 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1798581" y="26590353"/>
+            <a:ext cx="8290133" cy="5861518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2926530" y="27646487"/>
+            <a:ext cx="3919132" cy="198085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>252720</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="画像 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000061000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1659240" y="27128880"/>
-          <a:ext cx="7570800" cy="5980320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2908170" y="29563275"/>
+            <a:ext cx="3226817" cy="201642"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>37800</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>599760</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2667240" y="28206000"/>
-          <a:ext cx="3619440" cy="205200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2898450" y="30116362"/>
+            <a:ext cx="3226817" cy="201642"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2938050" y="31248095"/>
+            <a:ext cx="3809332" cy="198085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8153610" y="24281484"/>
+            <a:ext cx="1708304" cy="611406"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -108523"/>
+              <a:gd name="adj2" fmla="val 22093"/>
+            </a:avLst>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="FF3333"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19440</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>560520</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2648880" y="30164760"/>
-          <a:ext cx="2986920" cy="205200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="FF3333"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>550800</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000064000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2639160" y="30728160"/>
-          <a:ext cx="2986920" cy="205200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="FF3333"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>501480</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000065000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2678760" y="31880880"/>
-          <a:ext cx="3509640" cy="205200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="FF3333"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>564840</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000066000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7474680" y="24774480"/>
-          <a:ext cx="1528560" cy="622080"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -108523"/>
-            <a:gd name="adj2" fmla="val 22093"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF3333"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>ホストモードでは、</a:t>
-          </a:r>
-          <a:br/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>U1EP0のみ使用。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>ホストモードでは、</a:t>
+            </a:r>
+            <a:br/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>U1EP0のみ使用。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>78120</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>448200</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10241,11 +10171,310 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>380385</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>33964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1530421" y="14212584"/>
+          <a:ext cx="8342857" cy="4828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>96318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>196021</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>76383</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1530421" y="28179015"/>
+          <a:ext cx="11476190" cy="665008"/>
+          <a:chOff x="1530421" y="28179015"/>
+          <a:chExt cx="11476190" cy="665008"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1530421" y="28596404"/>
+            <a:ext cx="11476190" cy="247619"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1530421" y="28179015"/>
+            <a:ext cx="11466667" cy="438095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>529166</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>153728</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>26643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5221110" y="8607779"/>
+          <a:ext cx="4986785" cy="1473031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>　U1ADDR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>　　USB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>デバイスに割振ったアドレスを指定 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>= 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>U1BDTP1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>　　BDT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>テーブルの上位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>7BITS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>のアドレスを格納</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -10509,7 +10738,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C49F0FD-928A-4C06-A44D-AB14629D6149}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10517,8 +10746,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2450610" y="5122530"/>
-          <a:ext cx="7196370" cy="2312820"/>
+          <a:off x="2461193" y="5265758"/>
+          <a:ext cx="7235176" cy="2381964"/>
           <a:chOff x="2450610" y="5122530"/>
           <a:chExt cx="7196370" cy="2312820"/>
         </a:xfrm>
@@ -11076,7 +11305,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>90000</xdr:colOff>
@@ -11084,17 +11313,464 @@
       <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>349560</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>159717</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10814444" y="8540750"/>
+          <a:ext cx="7671676" cy="3966189"/>
+          <a:chOff x="10814444" y="8540750"/>
+          <a:chExt cx="7671676" cy="3966189"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000073000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10814444" y="8540750"/>
+            <a:ext cx="4951505" cy="1997954"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="3465A4"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　BDT0 (EP0_RX, IN)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　　UOWN=1:USBモジュールが制御 0:ソフトウェアが制御</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　　DTS=0:DATA0/1:DATA1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　　COUNTER:送受信バイト数</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　　ADDRESS:バッファアドレス(DMA転送元先)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　　PID:ハンドシェイクのPIDがリターン</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000074000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10815763" y="10535341"/>
+            <a:ext cx="4961945" cy="1971598"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="3465A4"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　BDT1 (EP0_TX, OUT)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　　UOWN=1:USBモジュールが制御 0:ソフトウェアが制御</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　　DTS=0:DATA0/1:DATA1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　　COUNTER:送受信バイト数</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　　ADDRESS:バッファアドレス(DMA転送元先)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　　PID:ハンドシェイクのPIDがリターン</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16266921" y="9643804"/>
+            <a:ext cx="2206875" cy="407486"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="3465A4"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　DATA buffer</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="Line 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="14252222" y="9866018"/>
+            <a:ext cx="2022593" cy="2234"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="3465A4"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="Line 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="14275740" y="11794539"/>
+            <a:ext cx="2022593" cy="23516"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="3465A4"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16279245" y="11542003"/>
+            <a:ext cx="2206875" cy="407486"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="3465A4"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>　DATA buffer</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>188149</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>23519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>188149</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="CustomShape 1">
+        <xdr:cNvPr id="4" name="線吹き出し 1 (枠付き) 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11102,127 +11778,91 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10758000" y="8202083"/>
-          <a:ext cx="4926810" cy="1920344"/>
+          <a:off x="16274816" y="8666575"/>
+          <a:ext cx="2681111" cy="834908"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 46918"/>
+            <a:gd name="adj2" fmla="val -438"/>
+            <a:gd name="adj3" fmla="val 70247"/>
+            <a:gd name="adj4" fmla="val -123859"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465A4"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor"/>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　BDT0 (EP0_RX, IN)</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　　UOWN=1:USBモジュールが制御 0:ソフトウェアが制御</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DATA0/1</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　　DTS=0:DATA0/1:DATA1</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は、通信しているそれぞれの</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　　COUNTER:送受信バイト数</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>EP0,EP1,EP2 </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　　ADDRESS:バッファアドレス(DMA転送元先)</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ごとに、</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　　PID:ハンドシェイクのPIDがリターン</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,1</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をフリップフロップする必要あり</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>175920</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>58327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>349560</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>175920</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>11290</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="CustomShape 1">
+        <xdr:cNvPr id="23" name="線吹き出し 1 (枠付き) 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11230,127 +11870,91 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9863640" y="10561680"/>
-          <a:ext cx="4550400" cy="1959120"/>
+          <a:off x="16262587" y="10641660"/>
+          <a:ext cx="2681111" cy="834908"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 46918"/>
+            <a:gd name="adj2" fmla="val -438"/>
+            <a:gd name="adj3" fmla="val 70247"/>
+            <a:gd name="adj4" fmla="val -123859"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465A4"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor"/>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　BDT1 (EP0_TX, OUT)</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　　UOWN=1:USBモジュールが制御 0:ソフトウェアが制御</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DATA0/1</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　　DTS=0:DATA0/1:DATA1</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は、通信しているそれぞれの</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　　COUNTER:送受信バイト数</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>EP0,EP1,EP2 </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　　ADDRESS:バッファアドレス(DMA転送元先)</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ごとに、</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　　PID:ハンドシェイクのPIDがリターン</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,1</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をフリップフロップする必要あり</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>415440</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>470370</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>164630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>470370</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>117593</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="CustomShape 1">
+        <xdr:cNvPr id="24" name="線吹き出し 1 (枠付き) 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11358,122 +11962,160 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15091560" y="10319040"/>
-          <a:ext cx="4539960" cy="403920"/>
+          <a:off x="7843426" y="10571574"/>
+          <a:ext cx="2681111" cy="834908"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1848"/>
+            <a:gd name="adj2" fmla="val 99123"/>
+            <a:gd name="adj3" fmla="val -239612"/>
+            <a:gd name="adj4" fmla="val 111667"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465A4"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor"/>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　DATA buffer</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BDT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブルの開始位置は、メモリアドレスの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>512BYTE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>境界に合わせるひつよう必要あり。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>199438</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>199438</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="線吹き出し 1 (枠付き) 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16286105" y="6902215"/>
+          <a:ext cx="2681111" cy="834908"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 46918"/>
+            <a:gd name="adj2" fmla="val -438"/>
+            <a:gd name="adj3" fmla="val 2641"/>
+            <a:gd name="adj4" fmla="val -18596"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> ホストモードでは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>U1EP0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のレジスタのみ実行。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>382320</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376297</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>82314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>371160</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>258704</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>84550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="Line 1">
+        <xdr:cNvPr id="27" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000076000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="13223880" y="9837000"/>
-          <a:ext cx="1823400" cy="668160"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="3465A4"/>
-          </a:solidFill>
-          <a:round/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>371520</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>393120</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="Line 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11481,8 +12123,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13213080" y="10559880"/>
-          <a:ext cx="1856160" cy="1259640"/>
+          <a:off x="8419630" y="8725370"/>
+          <a:ext cx="2563518" cy="884180"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14231,2118 +14873,2118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="4" customWidth="1"/>
-    <col min="3" max="6" width="6.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="4" customWidth="1"/>
-    <col min="8" max="9" width="6.75" style="4" customWidth="1"/>
-    <col min="10" max="11" width="8.875" style="4" customWidth="1"/>
-    <col min="12" max="14" width="6.75" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="3.375" style="4" customWidth="1"/>
-    <col min="18" max="25" width="7.875" style="4" customWidth="1"/>
-    <col min="26" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="6.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="6.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="6.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.375" style="1" customWidth="1"/>
+    <col min="18" max="25" width="7.875" style="1" customWidth="1"/>
+    <col min="26" max="1025" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="11"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>28</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="O2" s="13">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="O2" s="10">
         <v>1</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>32</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="O3" s="15">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="O3" s="12">
         <v>2</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>50</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>48</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="O4" s="15">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="O4" s="12">
         <v>3</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="O5" s="15">
+      <c r="E5" s="6"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="O5" s="12">
         <v>4</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="O6" s="15">
+      <c r="E6" s="6"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="O6" s="12">
         <v>5</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="14"/>
-      <c r="O7" s="16">
+      <c r="E7" s="6"/>
+      <c r="F7" s="11"/>
+      <c r="O7" s="13">
         <v>6</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16">
         <v>1</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18">
         <v>28</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="17" t="s">
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="22"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="20">
         <v>2</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="24">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="21">
         <v>27</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="25" t="s">
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="22"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="20">
         <v>3</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="24">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="21">
         <v>26</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="W12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="X12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Y12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="22"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="27" t="s">
+      <c r="N13" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="20">
         <v>4</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="24">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="21">
         <v>25</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="U13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="V13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="X13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="Y13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Z13" s="22"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="27" t="s">
+      <c r="N14" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="20">
         <v>5</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="24">
+      <c r="P14" s="9"/>
+      <c r="Q14" s="21">
         <v>24</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Y14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Z14" s="22"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B15" s="22"/>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="19"/>
+      <c r="D15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="20">
         <v>6</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="24">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="21">
         <v>23</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="25" t="s">
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="22"/>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="19"/>
+      <c r="D16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="20">
         <v>7</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="24">
+      <c r="P16" s="9"/>
+      <c r="Q16" s="21">
         <v>22</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="W16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Y16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Z16" s="22" t="s">
+      <c r="Z16" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="23">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="20">
         <v>8</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="24">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="21">
         <v>21</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="Y17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Z17" s="22" t="s">
+      <c r="Z17" s="19" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="N18" s="27" t="s">
+      <c r="N18" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="20">
         <v>9</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="24">
+      <c r="P18" s="9"/>
+      <c r="Q18" s="21">
         <v>20</v>
       </c>
-      <c r="R18" s="18" t="s">
+      <c r="R18" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="25" t="s">
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="20">
         <v>10</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="24">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="21">
         <v>19</v>
       </c>
-      <c r="R19" s="18" t="s">
+      <c r="R19" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="25" t="s">
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="M20" s="27" t="s">
+      <c r="M20" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N20" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="20">
         <v>11</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="24">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="21">
         <v>18</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="U20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="V20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="W20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="X20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Y20" s="4" t="s">
+      <c r="Y20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Z20" s="22" t="s">
+      <c r="Z20" s="19" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="20">
         <v>12</v>
       </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="24">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="21">
         <v>17</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="V21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="W21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="X21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Y21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="Z21" s="22" t="s">
+      <c r="Z21" s="19" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="23">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="20">
         <v>13</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="24">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="21">
         <v>16</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="V22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="W22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="X22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Y22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z22" s="22"/>
+      <c r="Z22" s="19"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="26">
         <v>14</v>
       </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31">
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28">
         <v>15</v>
       </c>
-      <c r="R23" s="18" t="s">
+      <c r="R23" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="32" t="s">
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="29" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="33" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="36" t="s">
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="33" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="37">
+      <c r="A27" s="34">
         <v>1</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="41" t="str">
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="38" t="str">
         <f t="shared" ref="V27:V40" si="0">B10</f>
         <v>10K</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="37">
+      <c r="A28" s="34">
         <v>2</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="43" t="s">
+      <c r="K28" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="43" t="s">
+      <c r="M28" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="N28" s="43"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="46">
+      <c r="N28" s="40"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="37">
+      <c r="A29" s="34">
         <v>3</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="43" t="s">
+      <c r="J29" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="43" t="s">
+      <c r="K29" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="43" t="s">
+      <c r="L29" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="43" t="s">
+      <c r="M29" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="43"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="46">
+      <c r="N29" s="40"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="37">
+      <c r="A30" s="34">
         <v>4</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="45" t="s">
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="46" t="str">
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="43" t="str">
         <f t="shared" si="0"/>
         <v>PGD1</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="37">
+      <c r="A31" s="34">
         <v>5</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="45" t="s">
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="46" t="str">
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="43" t="str">
         <f t="shared" si="0"/>
         <v>PGC1</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="37">
+      <c r="A32" s="34">
         <v>6</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="46">
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="37">
+      <c r="A33" s="34">
         <v>7</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="43" t="s">
+      <c r="I33" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="43" t="s">
+      <c r="J33" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="46">
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="37">
+      <c r="A34" s="34">
         <v>8</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="41" t="str">
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="38" t="str">
         <f t="shared" si="0"/>
         <v>GND</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="37">
+      <c r="A35" s="34">
         <v>9</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="1" t="s">
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="46" t="str">
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OSCI</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="37">
+      <c r="A36" s="34">
         <v>10</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="1" t="s">
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="46" t="str">
+      <c r="R36" s="100"/>
+      <c r="S36" s="100"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="100"/>
+      <c r="V36" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OSCO</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="37">
+      <c r="A37" s="34">
         <v>11</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="1" t="s">
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="46" t="str">
+      <c r="R37" s="100"/>
+      <c r="S37" s="100"/>
+      <c r="T37" s="100"/>
+      <c r="U37" s="100"/>
+      <c r="V37" s="43" t="str">
         <f t="shared" si="0"/>
         <v>SOSCI</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="37">
+      <c r="A38" s="34">
         <v>12</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="1" t="s">
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="46" t="str">
+      <c r="R38" s="100"/>
+      <c r="S38" s="100"/>
+      <c r="T38" s="100"/>
+      <c r="U38" s="100"/>
+      <c r="V38" s="43" t="str">
         <f t="shared" si="0"/>
         <v>SOSCO</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="37">
+      <c r="A39" s="34">
         <v>13</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40" t="s">
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="41" t="str">
+      <c r="Q39" s="99"/>
+      <c r="R39" s="99"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="99"/>
+      <c r="V39" s="38" t="str">
         <f t="shared" si="0"/>
         <v>+3.3V</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A40" s="37">
+      <c r="A40" s="34">
         <v>14</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="1" t="s">
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="46" t="str">
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="43" t="str">
         <f t="shared" si="0"/>
         <v>LED1</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="37">
+      <c r="A41" s="34">
         <v>15</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40" t="s">
+      <c r="C41" s="36"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="41" t="str">
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="99"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="99"/>
+      <c r="V41" s="38" t="str">
         <f>Z23</f>
         <v>VBUS</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="37">
+      <c r="A42" s="34">
         <v>16</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="46">
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
+      <c r="V42" s="43">
         <f>Z22</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="37">
+      <c r="A43" s="34">
         <v>17</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="45" t="s">
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="46" t="str">
+      <c r="R43" s="100"/>
+      <c r="S43" s="100"/>
+      <c r="T43" s="100"/>
+      <c r="U43" s="100"/>
+      <c r="V43" s="43" t="str">
         <f>Z21</f>
         <v>TX(→RX)</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="37">
+      <c r="A44" s="34">
         <v>18</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G44" s="43" t="s">
+      <c r="G44" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="H44" s="43" t="s">
+      <c r="H44" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="45" t="s">
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="46" t="str">
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="43" t="str">
         <f>Z20</f>
         <v>RX(→TX)</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="37">
+      <c r="A45" s="34">
         <v>19</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="40" t="s">
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="Q45" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="41" t="str">
+      <c r="R45" s="99"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="38" t="str">
         <f>Z19</f>
         <v>GND</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="37">
+      <c r="A46" s="34">
         <v>20</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="40" t="s">
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="Q46" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="41" t="str">
+      <c r="R46" s="99"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="99"/>
+      <c r="V46" s="38" t="str">
         <f>Z18</f>
         <v>10uF</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="37">
+      <c r="A47" s="34">
         <v>21</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="45" t="s">
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="Q47" s="42" t="s">
+      <c r="Q47" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="46" t="str">
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="43" t="str">
         <f>Z17</f>
         <v>D+(→D-)</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="37">
+      <c r="A48" s="34">
         <v>22</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="45" t="s">
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="Q48" s="100" t="s">
         <v>194</v>
       </c>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="46" t="str">
+      <c r="R48" s="100"/>
+      <c r="S48" s="100"/>
+      <c r="T48" s="100"/>
+      <c r="U48" s="100"/>
+      <c r="V48" s="43" t="str">
         <f>Z16</f>
         <v>D-(→D+)</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="37">
+      <c r="A49" s="34">
         <v>23</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="40" t="s">
+      <c r="C49" s="36"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="41" t="str">
+      <c r="Q49" s="99"/>
+      <c r="R49" s="99"/>
+      <c r="S49" s="99"/>
+      <c r="T49" s="99"/>
+      <c r="U49" s="99"/>
+      <c r="V49" s="38" t="str">
         <f>Z15</f>
         <v>+3.3V</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="37">
+      <c r="A50" s="34">
         <v>24</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H50" s="43" t="s">
+      <c r="H50" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="I50" s="43" t="s">
+      <c r="I50" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="46">
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="100"/>
+      <c r="S50" s="100"/>
+      <c r="T50" s="100"/>
+      <c r="U50" s="100"/>
+      <c r="V50" s="43">
         <f>Z14</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="37">
+      <c r="A51" s="34">
         <v>25</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="43" t="s">
+      <c r="H51" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I51" s="43" t="s">
+      <c r="I51" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="46">
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="100"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="100"/>
+      <c r="V51" s="43">
         <f>Z13</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="37">
+      <c r="A52" s="34">
         <v>26</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="43" t="s">
+      <c r="H52" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="46">
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="100"/>
+      <c r="R52" s="100"/>
+      <c r="S52" s="100"/>
+      <c r="T52" s="100"/>
+      <c r="U52" s="100"/>
+      <c r="V52" s="43">
         <f>Z12</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="37">
+      <c r="A53" s="34">
         <v>27</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="40" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="Q53" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="41" t="str">
+      <c r="R53" s="99"/>
+      <c r="S53" s="99"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="99"/>
+      <c r="V53" s="38" t="str">
         <f>Z11</f>
         <v>GND</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="37">
+      <c r="A54" s="34">
         <v>28</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="40" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="Q54" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="41" t="str">
+      <c r="R54" s="99"/>
+      <c r="S54" s="99"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="99"/>
+      <c r="V54" s="38" t="str">
         <f>Z10</f>
         <v>+3.3V</v>
       </c>
@@ -16403,13 +17045,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="51" customWidth="1"/>
-    <col min="3" max="9" width="8.875" style="51" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="51" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="51" customWidth="1"/>
-    <col min="12" max="1023" width="8.875" style="51" customWidth="1"/>
-    <col min="1024" max="1025" width="9" style="51" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="48" customWidth="1"/>
+    <col min="3" max="9" width="8.875" style="48" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="48" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="48" customWidth="1"/>
+    <col min="12" max="1023" width="8.875" style="48" customWidth="1"/>
+    <col min="1024" max="1025" width="9" style="48" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="8"/>
@@ -16442,111 +17084,111 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="54" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="56" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="56" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="57" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="57" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="58" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="56" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="56" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="56" t="s">
         <v>223</v>
       </c>
     </row>
@@ -16556,19 +17198,19 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="62"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="61" t="s">
         <v>227</v>
       </c>
     </row>
@@ -16576,7 +17218,7 @@
       <c r="C20" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="61" t="s">
         <v>229</v>
       </c>
     </row>
@@ -16584,7 +17226,7 @@
       <c r="C21" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="61" t="s">
         <v>231</v>
       </c>
     </row>
@@ -16592,7 +17234,7 @@
       <c r="C22" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="61" t="s">
         <v>233</v>
       </c>
     </row>
@@ -16600,7 +17242,7 @@
       <c r="C23" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="61" t="s">
         <v>235</v>
       </c>
     </row>
@@ -16608,7 +17250,7 @@
       <c r="C24" t="s">
         <v>236</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="61" t="s">
         <v>237</v>
       </c>
     </row>
@@ -16616,7 +17258,7 @@
       <c r="C25" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="61" t="s">
         <v>239</v>
       </c>
     </row>
@@ -16624,7 +17266,7 @@
       <c r="C26" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="61" t="s">
         <v>241</v>
       </c>
     </row>
@@ -16632,7 +17274,7 @@
       <c r="C27" t="s">
         <v>242</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="61" t="s">
         <v>243</v>
       </c>
     </row>
@@ -16640,7 +17282,7 @@
       <c r="C28" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="61" t="s">
         <v>245</v>
       </c>
     </row>
@@ -16648,7 +17290,7 @@
       <c r="C29" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="61" t="s">
         <v>247</v>
       </c>
     </row>
@@ -16656,7 +17298,7 @@
       <c r="C30" t="s">
         <v>248</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="61" t="s">
         <v>249</v>
       </c>
     </row>
@@ -16664,7 +17306,7 @@
       <c r="C31" t="s">
         <v>250</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="61" t="s">
         <v>251</v>
       </c>
     </row>
@@ -16672,7 +17314,7 @@
       <c r="C32" t="s">
         <v>252</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="61" t="s">
         <v>253</v>
       </c>
     </row>
@@ -16680,7 +17322,7 @@
       <c r="C33" t="s">
         <v>254</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="61" t="s">
         <v>255</v>
       </c>
     </row>
@@ -16688,69 +17330,69 @@
       <c r="B34" t="s">
         <v>256</v>
       </c>
-      <c r="D34" s="64"/>
+      <c r="D34" s="61"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="E35" s="62"/>
+      <c r="E35" s="59"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="E36" s="65"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>260</v>
       </c>
-      <c r="D37" s="64"/>
+      <c r="D37" s="61"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="61" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E39" s="62"/>
+      <c r="E39" s="59"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>264</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="61"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="E41" s="62"/>
+      <c r="E41" s="59"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>266</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="61" t="s">
         <v>267</v>
       </c>
     </row>
@@ -16758,13 +17400,13 @@
       <c r="B43" t="s">
         <v>268</v>
       </c>
-      <c r="D43" s="64"/>
+      <c r="D43" s="61"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>269</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="61" t="s">
         <v>270</v>
       </c>
     </row>
@@ -16772,47 +17414,47 @@
       <c r="C45" t="s">
         <v>271</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="61" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="E46" s="62"/>
+      <c r="E46" s="59"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>274</v>
       </c>
-      <c r="D47" s="64"/>
+      <c r="D47" s="61"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>275</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="61" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="63" t="s">
+      <c r="D49" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="E49" s="62"/>
+      <c r="E49" s="59"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>278</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="61"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
@@ -16823,143 +17465,143 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="D52" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="E52" s="62"/>
+      <c r="E52" s="59"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>281</v>
       </c>
-      <c r="D53" s="64"/>
+      <c r="D53" s="61"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="D54" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="E54" s="62"/>
+      <c r="E54" s="59"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
         <v>283</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="61" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="55"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="D59" s="67" t="s">
+      <c r="D59" s="64" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="56" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="56" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="D62" s="60" t="s">
+      <c r="D62" s="57" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="56" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="D64" s="60" t="s">
+      <c r="D64" s="57" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="57" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C66" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="D66" s="60" t="s">
+      <c r="D66" s="57" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="56" t="s">
         <v>312</v>
       </c>
     </row>
@@ -16977,13 +17619,13 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="D71" s="62" t="s">
+      <c r="D71" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="E71" s="62"/>
+      <c r="E71" s="59"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
@@ -17015,13 +17657,13 @@
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C76" s="62" t="s">
+      <c r="C76" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="D76" s="62" t="s">
+      <c r="D76" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="E76" s="62"/>
+      <c r="E76" s="59"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
@@ -17029,13 +17671,13 @@
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="62" t="s">
+      <c r="D78" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="E78" s="62"/>
+      <c r="E78" s="59"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
@@ -17051,22 +17693,22 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="D81" s="62" t="s">
+      <c r="D81" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="E81" s="62"/>
+      <c r="E81" s="59"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C82" s="65" t="s">
+      <c r="C82" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="D82" s="65" t="s">
+      <c r="D82" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="E82" s="65"/>
+      <c r="E82" s="62"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
@@ -17082,22 +17724,22 @@
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C85" s="65" t="s">
+      <c r="C85" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="D85" s="65" t="s">
+      <c r="D85" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="E85" s="65"/>
+      <c r="E85" s="62"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C86" s="62" t="s">
+      <c r="C86" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="D86" s="62" t="s">
+      <c r="D86" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="E86" s="62"/>
+      <c r="E86" s="59"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
@@ -17129,13 +17771,13 @@
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="D91" s="62" t="s">
+      <c r="D91" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="E91" s="62"/>
+      <c r="E91" s="59"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C92" t="s">
@@ -17162,7 +17804,7 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B95" s="68" t="s">
+      <c r="B95" s="65" t="s">
         <v>341</v>
       </c>
     </row>
@@ -17175,27 +17817,27 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="D97" s="62" t="s">
+      <c r="D97" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="E97" s="62"/>
+      <c r="E97" s="59"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="65" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="D99" s="62" t="s">
+      <c r="D99" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="E99" s="62"/>
+      <c r="E99" s="59"/>
     </row>
     <row r="100" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C100" t="s">
@@ -17259,96 +17901,96 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C108" s="65" t="s">
+      <c r="C108" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="D108" s="65" t="s">
+      <c r="D108" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="E108" s="65"/>
+      <c r="E108" s="62"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C109" s="62" t="s">
+      <c r="C109" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="D109" s="62" t="s">
+      <c r="D109" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="E109" s="62"/>
+      <c r="E109" s="59"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="52" t="s">
+      <c r="A112" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="B112" s="53" t="s">
+      <c r="B112" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C112" s="54"/>
-      <c r="D112" s="55"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="52"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B113" s="56" t="s">
+      <c r="B113" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="C113" s="56" t="s">
+      <c r="C113" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="D113" s="57" t="s">
+      <c r="D113" s="54" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="C114" s="58" t="s">
+      <c r="C114" s="55" t="s">
         <v>365</v>
       </c>
-      <c r="D114" s="59" t="s">
+      <c r="D114" s="56" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B115" s="58" t="s">
+      <c r="B115" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="D115" s="59" t="s">
+      <c r="D115" s="56" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B116" s="58" t="s">
+      <c r="B116" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="C116" s="58" t="s">
+      <c r="C116" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="D116" s="59" t="s">
+      <c r="D116" s="56" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="55" t="s">
         <v>373</v>
       </c>
-      <c r="C117" s="58" t="s">
+      <c r="C117" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="D117" s="59" t="s">
+      <c r="D117" s="56" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B118" s="58" t="s">
+      <c r="B118" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="C118" s="58" t="s">
+      <c r="C118" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="D118" s="59" t="s">
+      <c r="D118" s="56" t="s">
         <v>378</v>
       </c>
     </row>
@@ -17358,13 +18000,13 @@
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C121" s="62" t="s">
+      <c r="C121" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="D121" s="62" t="s">
+      <c r="D121" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="E121" s="62"/>
+      <c r="E121" s="59"/>
     </row>
     <row r="122" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C122" t="s">
@@ -17716,31 +18358,31 @@
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C166" s="69" t="s">
+      <c r="C166" s="66" t="s">
         <v>466</v>
       </c>
-      <c r="D166" s="69" t="s">
+      <c r="D166" s="66" t="s">
         <v>467</v>
       </c>
-      <c r="E166" s="69"/>
+      <c r="E166" s="66"/>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C167" s="65" t="s">
+      <c r="C167" s="62" t="s">
         <v>468</v>
       </c>
-      <c r="D167" s="65" t="s">
+      <c r="D167" s="62" t="s">
         <v>469</v>
       </c>
-      <c r="E167" s="65"/>
+      <c r="E167" s="62"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C168" s="62" t="s">
+      <c r="C168" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="D168" s="62" t="s">
+      <c r="D168" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="E168" s="62"/>
+      <c r="E168" s="59"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
@@ -17756,13 +18398,13 @@
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C171" s="62" t="s">
+      <c r="C171" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="D171" s="62" t="s">
+      <c r="D171" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E171" s="62"/>
+      <c r="E171" s="59"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
@@ -17778,13 +18420,13 @@
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C174" s="62" t="s">
+      <c r="C174" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="D174" s="62" t="s">
+      <c r="D174" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="E174" s="62"/>
+      <c r="E174" s="59"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
@@ -17800,13 +18442,13 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C177" s="62" t="s">
+      <c r="C177" s="59" t="s">
         <v>373</v>
       </c>
-      <c r="D177" s="62" t="s">
+      <c r="D177" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="E177" s="62"/>
+      <c r="E177" s="59"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
@@ -17822,76 +18464,76 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C180" s="62" t="s">
+      <c r="C180" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="D180" s="62" t="s">
+      <c r="D180" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="E180" s="62"/>
+      <c r="E180" s="59"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A183" s="52" t="s">
+      <c r="A183" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="B183" s="53" t="s">
+      <c r="B183" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C183" s="53"/>
-      <c r="D183" s="70"/>
+      <c r="C183" s="50"/>
+      <c r="D183" s="67"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B184" s="58" t="s">
+      <c r="B184" s="55" t="s">
         <v>479</v>
       </c>
-      <c r="C184" s="58" t="s">
+      <c r="C184" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="D184" s="59" t="s">
+      <c r="D184" s="56" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B185" s="58" t="s">
+      <c r="B185" s="55" t="s">
         <v>482</v>
       </c>
-      <c r="C185" s="58" t="s">
+      <c r="C185" s="55" t="s">
         <v>483</v>
       </c>
-      <c r="D185" s="59" t="s">
+      <c r="D185" s="56" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B186" s="58" t="s">
+      <c r="B186" s="55" t="s">
         <v>485</v>
       </c>
-      <c r="C186" s="58" t="s">
+      <c r="C186" s="55" t="s">
         <v>486</v>
       </c>
-      <c r="D186" s="59" t="s">
+      <c r="D186" s="56" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B187" s="58" t="s">
+      <c r="B187" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="C187" s="58" t="s">
+      <c r="C187" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="D187" s="59" t="s">
+      <c r="D187" s="56" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B188" s="58" t="s">
+      <c r="B188" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="C188" s="58" t="s">
+      <c r="C188" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="D188" s="59" t="s">
+      <c r="D188" s="56" t="s">
         <v>493</v>
       </c>
     </row>
@@ -17925,13 +18567,13 @@
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C194" s="62" t="s">
+      <c r="C194" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="D194" s="62" t="s">
+      <c r="D194" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="E194" s="62"/>
+      <c r="E194" s="59"/>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C195" t="s">
@@ -18043,13 +18685,13 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C209" s="62" t="s">
+      <c r="C209" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="D209" s="62" t="s">
+      <c r="D209" s="59" t="s">
         <v>484</v>
       </c>
-      <c r="E209" s="62"/>
+      <c r="E209" s="59"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
@@ -18065,13 +18707,13 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C212" s="62" t="s">
+      <c r="C212" s="59" t="s">
         <v>485</v>
       </c>
-      <c r="D212" s="62" t="s">
+      <c r="D212" s="59" t="s">
         <v>487</v>
       </c>
-      <c r="E212" s="62"/>
+      <c r="E212" s="59"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
@@ -18079,13 +18721,13 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C214" s="62" t="s">
+      <c r="C214" s="59" t="s">
         <v>488</v>
       </c>
-      <c r="D214" s="62" t="s">
+      <c r="D214" s="59" t="s">
         <v>490</v>
       </c>
-      <c r="E214" s="62"/>
+      <c r="E214" s="59"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C215" t="s">
@@ -18101,13 +18743,13 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C217" s="62" t="s">
+      <c r="C217" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="D217" s="62" t="s">
+      <c r="D217" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="E217" s="62"/>
+      <c r="E217" s="59"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C218" t="s">
@@ -18153,7 +18795,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B230" s="71" t="s">
+      <c r="B230" s="68" t="s">
         <v>539</v>
       </c>
     </row>
@@ -18163,10 +18805,10 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A234" s="68" t="s">
+      <c r="A234" s="65" t="s">
         <v>541</v>
       </c>
-      <c r="B234" s="68" t="s">
+      <c r="B234" s="65" t="s">
         <v>542</v>
       </c>
     </row>
@@ -18175,16 +18817,16 @@
         <v>543</v>
       </c>
     </row>
-    <row r="246" spans="2:4" s="72" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B246" s="72" t="s">
+    <row r="246" spans="2:4" s="69" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B246" s="69" t="s">
         <v>544</v>
       </c>
-      <c r="D246" s="73" t="s">
+      <c r="D246" s="70" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C247" s="71" t="s">
+      <c r="C247" s="68" t="s">
         <v>546</v>
       </c>
     </row>
@@ -18204,7 +18846,7 @@
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C251" s="74" t="s">
+      <c r="C251" s="71" t="s">
         <v>550</v>
       </c>
     </row>
@@ -18237,7 +18879,7 @@
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C257" s="69" t="s">
+      <c r="C257" s="66" t="s">
         <v>546</v>
       </c>
     </row>
@@ -18257,7 +18899,7 @@
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C261" s="74" t="s">
+      <c r="C261" s="71" t="s">
         <v>550</v>
       </c>
     </row>
@@ -18335,7 +18977,7 @@
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C276" s="74" t="s">
+      <c r="C276" s="71" t="s">
         <v>569</v>
       </c>
     </row>
@@ -18398,7 +19040,7 @@
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C288" s="74" t="s">
+      <c r="C288" s="71" t="s">
         <v>582</v>
       </c>
     </row>
@@ -18408,10 +19050,10 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A292" s="68" t="s">
+      <c r="A292" s="65" t="s">
         <v>584</v>
       </c>
-      <c r="B292" s="68" t="s">
+      <c r="B292" s="65" t="s">
         <v>585</v>
       </c>
     </row>
@@ -18471,7 +19113,7 @@
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C314" s="74" t="s">
+      <c r="C314" s="71" t="s">
         <v>597</v>
       </c>
     </row>
@@ -18556,7 +19198,7 @@
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C331" s="74" t="s">
+      <c r="C331" s="71" t="s">
         <v>614</v>
       </c>
     </row>
@@ -18566,7 +19208,7 @@
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C333" s="62" t="s">
+      <c r="C333" s="59" t="s">
         <v>616</v>
       </c>
     </row>
@@ -18581,10 +19223,10 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A339" s="68" t="s">
+      <c r="A339" s="65" t="s">
         <v>619</v>
       </c>
-      <c r="B339" s="68" t="s">
+      <c r="B339" s="65" t="s">
         <v>620</v>
       </c>
     </row>
@@ -18685,7 +19327,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="65" t="s">
         <v>631</v>
       </c>
     </row>
@@ -18701,7 +19343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView topLeftCell="C113" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -18716,7 +19358,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>633</v>
       </c>
     </row>
@@ -18791,7 +19433,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="65" t="s">
         <v>648</v>
       </c>
     </row>
@@ -18821,7 +19463,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="65" t="s">
         <v>654</v>
       </c>
     </row>
@@ -18945,929 +19587,929 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A97:AMK200"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A179" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="64" customWidth="1"/>
-    <col min="4" max="4" width="33" style="64" customWidth="1"/>
-    <col min="5" max="7" width="9" style="64" customWidth="1"/>
-    <col min="8" max="8" width="35.125" style="64" customWidth="1"/>
-    <col min="9" max="11" width="9" style="64" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="64" customWidth="1"/>
-    <col min="13" max="1025" width="9" style="64" customWidth="1"/>
+    <col min="1" max="3" width="9" style="61" customWidth="1"/>
+    <col min="4" max="4" width="33" style="61" customWidth="1"/>
+    <col min="5" max="7" width="9" style="61" customWidth="1"/>
+    <col min="8" max="8" width="35.125" style="61" customWidth="1"/>
+    <col min="9" max="11" width="9" style="61" customWidth="1"/>
+    <col min="12" max="12" width="20.25" style="61" customWidth="1"/>
+    <col min="13" max="1025" width="9" style="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" s="64" t="s">
+      <c r="B97" s="61" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="64" t="s">
+      <c r="B124" s="61" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I125" s="64" t="s">
+      <c r="I125" s="61" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B149" s="64" t="s">
+      <c r="B149" s="61" t="s">
         <v>679</v>
       </c>
-      <c r="F149" s="64" t="s">
+      <c r="F149" s="61" t="s">
         <v>680</v>
       </c>
-      <c r="J149" s="64" t="s">
+      <c r="J149" s="61" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A150" s="64" t="s">
+      <c r="A150" s="61" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B151" s="64" t="s">
+      <c r="B151" s="61" t="s">
         <v>683</v>
       </c>
-      <c r="D151" s="64" t="s">
+      <c r="D151" s="61" t="s">
         <v>684</v>
       </c>
-      <c r="F151" s="64" t="s">
+      <c r="F151" s="61" t="s">
         <v>683</v>
       </c>
-      <c r="H151" s="64" t="s">
+      <c r="H151" s="61" t="s">
         <v>684</v>
       </c>
-      <c r="J151" s="64" t="s">
+      <c r="J151" s="61" t="s">
         <v>683</v>
       </c>
-      <c r="L151" s="64" t="s">
+      <c r="L151" s="61" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B152" s="64" t="s">
+      <c r="B152" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="D152" s="64" t="s">
+      <c r="D152" s="61" t="s">
         <v>686</v>
       </c>
-      <c r="F152" s="64" t="s">
+      <c r="F152" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="H152" s="64" t="s">
+      <c r="H152" s="61" t="s">
         <v>687</v>
       </c>
-      <c r="J152" s="64" t="s">
+      <c r="J152" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="L152" s="64" t="s">
+      <c r="L152" s="61" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B153" s="64" t="s">
+      <c r="B153" s="61" t="s">
         <v>688</v>
       </c>
-      <c r="D153" s="64" t="s">
+      <c r="D153" s="61" t="s">
         <v>689</v>
       </c>
-      <c r="F153" s="64" t="s">
+      <c r="F153" s="61" t="s">
         <v>690</v>
       </c>
-      <c r="H153" s="64" t="s">
+      <c r="H153" s="61" t="s">
         <v>691</v>
       </c>
-      <c r="J153" s="64" t="s">
+      <c r="J153" s="61" t="s">
         <v>688</v>
       </c>
-      <c r="L153" s="64" t="s">
+      <c r="L153" s="61" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B154" s="64" t="s">
+      <c r="B154" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="D154" s="64" t="s">
+      <c r="D154" s="61" t="s">
         <v>693</v>
       </c>
-      <c r="F154" s="64" t="s">
+      <c r="F154" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="H154" s="64" t="s">
+      <c r="H154" s="61" t="s">
         <v>693</v>
       </c>
-      <c r="J154" s="64" t="s">
+      <c r="J154" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="L154" s="64" t="s">
+      <c r="L154" s="61" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B155" s="64" t="s">
+      <c r="B155" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="D155" s="64" t="s">
+      <c r="D155" s="61" t="s">
         <v>694</v>
       </c>
-      <c r="F155" s="64" t="s">
+      <c r="F155" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="H155" s="64" t="s">
+      <c r="H155" s="61" t="s">
         <v>694</v>
       </c>
-      <c r="J155" s="64" t="s">
+      <c r="J155" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="L155" s="64" t="s">
+      <c r="L155" s="61" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B156" s="64" t="s">
+      <c r="B156" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="D156" s="64" t="s">
+      <c r="D156" s="61" t="s">
         <v>695</v>
       </c>
-      <c r="F156" s="64" t="s">
+      <c r="F156" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="H156" s="64" t="s">
+      <c r="H156" s="61" t="s">
         <v>695</v>
       </c>
-      <c r="J156" s="64" t="s">
+      <c r="J156" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="L156" s="64" t="s">
+      <c r="L156" s="61" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B157" s="64" t="s">
+      <c r="B157" s="61" t="s">
         <v>696</v>
       </c>
-      <c r="D157" s="64" t="s">
+      <c r="D157" s="61" t="s">
         <v>697</v>
       </c>
-      <c r="F157" s="64" t="s">
+      <c r="F157" s="61" t="s">
         <v>696</v>
       </c>
-      <c r="H157" s="64" t="s">
+      <c r="H157" s="61" t="s">
         <v>697</v>
       </c>
-      <c r="J157" s="64" t="s">
+      <c r="J157" s="61" t="s">
         <v>698</v>
       </c>
-      <c r="L157" s="64" t="s">
+      <c r="L157" s="61" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B158" s="64" t="s">
+      <c r="B158" s="61" t="s">
         <v>700</v>
       </c>
-      <c r="D158" s="64" t="s">
+      <c r="D158" s="61" t="s">
         <v>701</v>
       </c>
-      <c r="F158" s="64" t="s">
+      <c r="F158" s="61" t="s">
         <v>702</v>
       </c>
-      <c r="H158" s="64" t="s">
+      <c r="H158" s="61" t="s">
         <v>703</v>
       </c>
-      <c r="J158" s="64" t="s">
+      <c r="J158" s="61" t="s">
         <v>704</v>
       </c>
-      <c r="L158" s="64" t="s">
+      <c r="L158" s="61" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B159" s="64" t="s">
+      <c r="B159" s="61" t="s">
         <v>706</v>
       </c>
-      <c r="D159" s="64" t="s">
+      <c r="D159" s="61" t="s">
         <v>707</v>
       </c>
-      <c r="F159" s="64" t="s">
+      <c r="F159" s="61" t="s">
         <v>708</v>
       </c>
-      <c r="H159" s="64" t="s">
+      <c r="H159" s="61" t="s">
         <v>709</v>
       </c>
-      <c r="J159" s="64" t="s">
+      <c r="J159" s="61" t="s">
         <v>710</v>
       </c>
-      <c r="L159" s="64" t="s">
+      <c r="L159" s="61" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B160" s="64" t="s">
+      <c r="B160" s="61" t="s">
         <v>712</v>
       </c>
-      <c r="D160" s="64" t="s">
+      <c r="D160" s="61" t="s">
         <v>713</v>
       </c>
-      <c r="F160" s="64" t="s">
+      <c r="F160" s="61" t="s">
         <v>714</v>
       </c>
-      <c r="H160" s="64" t="s">
+      <c r="H160" s="61" t="s">
         <v>715</v>
       </c>
-      <c r="J160" s="64" t="s">
+      <c r="J160" s="61" t="s">
         <v>688</v>
       </c>
-      <c r="L160" s="64" t="s">
+      <c r="L160" s="61" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B161" s="64" t="s">
+      <c r="B161" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="D161" s="64" t="s">
+      <c r="D161" s="61" t="s">
         <v>717</v>
       </c>
-      <c r="F161" s="64" t="s">
+      <c r="F161" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="H161" s="64" t="s">
+      <c r="H161" s="61" t="s">
         <v>717</v>
       </c>
-      <c r="J161" s="64" t="s">
+      <c r="J161" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="L161" s="64" t="s">
+      <c r="L161" s="61" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B162" s="64" t="s">
+      <c r="B162" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="D162" s="64" t="s">
+      <c r="D162" s="61" t="s">
         <v>720</v>
       </c>
-      <c r="F162" s="64" t="s">
+      <c r="F162" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="H162" s="64" t="s">
+      <c r="H162" s="61" t="s">
         <v>720</v>
       </c>
-      <c r="J162" s="64" t="s">
+      <c r="J162" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="L162" s="64" t="s">
+      <c r="L162" s="61" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B163" s="64" t="s">
+      <c r="B163" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="D163" s="64" t="s">
+      <c r="D163" s="61" t="s">
         <v>722</v>
       </c>
-      <c r="F163" s="64" t="s">
+      <c r="F163" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="H163" s="64" t="s">
+      <c r="H163" s="61" t="s">
         <v>722</v>
       </c>
-      <c r="J163" s="64" t="s">
+      <c r="J163" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="L163" s="64" t="s">
+      <c r="L163" s="61" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B164" s="64" t="s">
+      <c r="B164" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="D164" s="63" t="s">
+      <c r="D164" s="60" t="s">
         <v>724</v>
       </c>
-      <c r="F164" s="64" t="s">
+      <c r="F164" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="H164" s="63" t="s">
+      <c r="H164" s="60" t="s">
         <v>724</v>
       </c>
-      <c r="J164" s="64" t="s">
+      <c r="J164" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="L164" s="63" t="s">
+      <c r="L164" s="60" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A166" s="64" t="s">
+      <c r="A166" s="61" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B167" s="64" t="s">
+      <c r="B167" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="D167" s="64" t="s">
+      <c r="D167" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="F167" s="64" t="s">
+      <c r="F167" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="H167" s="64" t="s">
+      <c r="H167" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="J167" s="64" t="s">
+      <c r="J167" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="L167" s="64" t="s">
+      <c r="L167" s="61" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B168" s="64" t="s">
+      <c r="B168" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="D168" s="64" t="s">
+      <c r="D168" s="61" t="s">
         <v>728</v>
       </c>
-      <c r="F168" s="64" t="s">
+      <c r="F168" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="H168" s="64" t="s">
+      <c r="H168" s="61" t="s">
         <v>729</v>
       </c>
-      <c r="J168" s="64" t="s">
+      <c r="J168" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="L168" s="64" t="s">
+      <c r="L168" s="61" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B169" s="64" t="s">
+      <c r="B169" s="61" t="s">
         <v>730</v>
       </c>
-      <c r="D169" s="64" t="s">
+      <c r="D169" s="61" t="s">
         <v>731</v>
       </c>
-      <c r="F169" s="64" t="s">
+      <c r="F169" s="61" t="s">
         <v>730</v>
       </c>
-      <c r="H169" s="64" t="s">
+      <c r="H169" s="61" t="s">
         <v>731</v>
       </c>
-      <c r="J169" s="64" t="s">
+      <c r="J169" s="61" t="s">
         <v>732</v>
       </c>
-      <c r="L169" s="64" t="s">
+      <c r="L169" s="61" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B170" s="64" t="s">
+      <c r="B170" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="D170" s="63" t="s">
+      <c r="D170" s="60" t="s">
         <v>734</v>
       </c>
-      <c r="F170" s="64" t="s">
+      <c r="F170" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="H170" s="63" t="s">
+      <c r="H170" s="60" t="s">
         <v>734</v>
       </c>
-      <c r="J170" s="64" t="s">
+      <c r="J170" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="L170" s="63" t="s">
+      <c r="L170" s="60" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B171" s="64" t="s">
+      <c r="B171" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="D171" s="64" t="s">
+      <c r="D171" s="61" t="s">
         <v>735</v>
       </c>
-      <c r="F171" s="64" t="s">
+      <c r="F171" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="H171" s="64" t="s">
+      <c r="H171" s="61" t="s">
         <v>735</v>
       </c>
-      <c r="J171" s="64" t="s">
+      <c r="J171" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="L171" s="64" t="s">
+      <c r="L171" s="61" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B172" s="64" t="s">
+      <c r="B172" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="D172" s="64" t="s">
+      <c r="D172" s="61" t="s">
         <v>736</v>
       </c>
-      <c r="F172" s="64" t="s">
+      <c r="F172" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="H172" s="64" t="s">
+      <c r="H172" s="61" t="s">
         <v>736</v>
       </c>
-      <c r="J172" s="64" t="s">
+      <c r="J172" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="L172" s="64" t="s">
+      <c r="L172" s="61" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B173" s="64" t="s">
+      <c r="B173" s="61" t="s">
         <v>737</v>
       </c>
-      <c r="D173" s="64" t="s">
+      <c r="D173" s="61" t="s">
         <v>738</v>
       </c>
-      <c r="F173" s="64" t="s">
+      <c r="F173" s="61" t="s">
         <v>737</v>
       </c>
-      <c r="H173" s="64" t="s">
+      <c r="H173" s="61" t="s">
         <v>738</v>
       </c>
-      <c r="J173" s="64" t="s">
+      <c r="J173" s="61" t="s">
         <v>739</v>
       </c>
-      <c r="L173" s="64" t="s">
+      <c r="L173" s="61" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B174" s="64" t="s">
+      <c r="B174" s="61" t="s">
         <v>740</v>
       </c>
-      <c r="D174" s="64" t="s">
+      <c r="D174" s="61" t="s">
         <v>741</v>
       </c>
-      <c r="F174" s="64" t="s">
+      <c r="F174" s="61" t="s">
         <v>742</v>
       </c>
-      <c r="H174" s="64" t="s">
+      <c r="H174" s="61" t="s">
         <v>743</v>
       </c>
-      <c r="J174" s="64" t="s">
+      <c r="J174" s="61" t="s">
         <v>744</v>
       </c>
-      <c r="L174" s="64" t="s">
+      <c r="L174" s="61" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="J176" s="64" t="s">
+      <c r="J176" s="61" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="177" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C177" s="64" t="s">
+      <c r="C177" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="D177" s="64" t="s">
+      <c r="D177" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="G177" s="64" t="s">
+      <c r="G177" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="H177" s="64" t="s">
+      <c r="H177" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="K177" s="64" t="s">
+      <c r="K177" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="L177" s="64" t="s">
+      <c r="L177" s="61" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="178" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C178" s="64" t="s">
+      <c r="C178" s="61" t="s">
         <v>747</v>
       </c>
-      <c r="D178" s="63" t="s">
+      <c r="D178" s="60" t="s">
         <v>748</v>
       </c>
-      <c r="G178" s="64" t="s">
+      <c r="G178" s="61" t="s">
         <v>747</v>
       </c>
-      <c r="H178" s="63" t="s">
+      <c r="H178" s="60" t="s">
         <v>749</v>
       </c>
-      <c r="K178" s="64" t="s">
+      <c r="K178" s="61" t="s">
         <v>747</v>
       </c>
-      <c r="L178" s="63" t="s">
+      <c r="L178" s="60" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="179" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C179" s="64" t="s">
+      <c r="C179" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="D179" s="64" t="s">
+      <c r="D179" s="61" t="s">
         <v>750</v>
       </c>
-      <c r="G179" s="64" t="s">
+      <c r="G179" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="H179" s="64" t="s">
+      <c r="H179" s="61" t="s">
         <v>750</v>
       </c>
-      <c r="K179" s="64" t="s">
+      <c r="K179" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="L179" s="64" t="s">
+      <c r="L179" s="61" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="180" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C180" s="64" t="s">
+      <c r="C180" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="D180" s="64" t="s">
+      <c r="D180" s="61" t="s">
         <v>751</v>
       </c>
-      <c r="G180" s="64" t="s">
+      <c r="G180" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="H180" s="64" t="s">
+      <c r="H180" s="61" t="s">
         <v>751</v>
       </c>
-      <c r="K180" s="64" t="s">
+      <c r="K180" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="L180" s="64" t="s">
+      <c r="L180" s="61" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="181" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C181" s="64" t="s">
+      <c r="C181" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="D181" s="63" t="s">
+      <c r="D181" s="60" t="s">
         <v>752</v>
       </c>
-      <c r="G181" s="64" t="s">
+      <c r="G181" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="H181" s="63" t="s">
+      <c r="H181" s="60" t="s">
         <v>752</v>
       </c>
-      <c r="K181" s="64" t="s">
+      <c r="K181" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="L181" s="63" t="s">
+      <c r="L181" s="60" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="182" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C182" s="63" t="s">
+      <c r="C182" s="60" t="s">
         <v>698</v>
       </c>
-      <c r="D182" s="63" t="s">
+      <c r="D182" s="60" t="s">
         <v>754</v>
       </c>
-      <c r="G182" s="63" t="s">
+      <c r="G182" s="60" t="s">
         <v>698</v>
       </c>
-      <c r="H182" s="63" t="s">
+      <c r="H182" s="60" t="s">
         <v>754</v>
       </c>
-      <c r="K182" s="64" t="s">
+      <c r="K182" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="L182" s="64" t="s">
+      <c r="L182" s="61" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="183" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C183" s="63" t="s">
+      <c r="C183" s="60" t="s">
         <v>756</v>
       </c>
-      <c r="D183" s="63" t="s">
+      <c r="D183" s="60" t="s">
         <v>757</v>
       </c>
-      <c r="G183" s="63" t="s">
+      <c r="G183" s="60" t="s">
         <v>756</v>
       </c>
-      <c r="H183" s="63" t="s">
+      <c r="H183" s="60" t="s">
         <v>757</v>
       </c>
-      <c r="K183" s="64" t="s">
+      <c r="K183" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="L183" s="64" t="s">
+      <c r="L183" s="61" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="184" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C184" s="63" t="s">
+      <c r="C184" s="60" t="s">
         <v>759</v>
       </c>
-      <c r="D184" s="63" t="s">
+      <c r="D184" s="60" t="s">
         <v>760</v>
       </c>
-      <c r="G184" s="63" t="s">
+      <c r="G184" s="60" t="s">
         <v>759</v>
       </c>
-      <c r="H184" s="63" t="s">
+      <c r="H184" s="60" t="s">
         <v>760</v>
       </c>
-      <c r="K184" s="64" t="s">
+      <c r="K184" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="L184" s="64" t="s">
+      <c r="L184" s="61" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="185" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C185" s="64" t="s">
+      <c r="C185" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="D185" s="64" t="s">
+      <c r="D185" s="61" t="s">
         <v>762</v>
       </c>
-      <c r="G185" s="64" t="s">
+      <c r="G185" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="H185" s="64" t="s">
+      <c r="H185" s="61" t="s">
         <v>762</v>
       </c>
-      <c r="K185" s="64" t="s">
+      <c r="K185" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="L185" s="64" t="s">
+      <c r="L185" s="61" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="187" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C187" s="64" t="s">
+      <c r="C187" s="61" t="s">
         <v>763</v>
       </c>
-      <c r="D187" s="64" t="s">
+      <c r="D187" s="61" t="s">
         <v>764</v>
       </c>
-      <c r="G187" s="64" t="s">
+      <c r="G187" s="61" t="s">
         <v>763</v>
       </c>
-      <c r="H187" s="64" t="s">
+      <c r="H187" s="61" t="s">
         <v>764</v>
       </c>
-      <c r="K187" s="64" t="s">
+      <c r="K187" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="L187" s="64" t="s">
+      <c r="L187" s="61" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="188" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C188" s="64" t="s">
+      <c r="C188" s="61" t="s">
         <v>765</v>
       </c>
-      <c r="D188" s="64" t="s">
+      <c r="D188" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="G188" s="64" t="s">
+      <c r="G188" s="61" t="s">
         <v>765</v>
       </c>
-      <c r="H188" s="64" t="s">
+      <c r="H188" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="K188" s="64" t="s">
+      <c r="K188" s="61" t="s">
         <v>767</v>
       </c>
-      <c r="L188" s="63" t="s">
+      <c r="L188" s="60" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="189" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C189" s="64" t="s">
+      <c r="C189" s="61" t="s">
         <v>769</v>
       </c>
-      <c r="D189" s="63" t="s">
+      <c r="D189" s="60" t="s">
         <v>770</v>
       </c>
-      <c r="G189" s="64" t="s">
+      <c r="G189" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="H189" s="63" t="s">
+      <c r="H189" s="60" t="s">
         <v>771</v>
       </c>
-      <c r="K189" s="64" t="s">
+      <c r="K189" s="61" t="s">
         <v>772</v>
       </c>
-      <c r="L189" s="64" t="s">
+      <c r="L189" s="61" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="190" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C190" s="64" t="s">
+      <c r="C190" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="D190" s="64" t="s">
+      <c r="D190" s="61" t="s">
         <v>774</v>
       </c>
-      <c r="G190" s="64" t="s">
+      <c r="G190" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="H190" s="64" t="s">
+      <c r="H190" s="61" t="s">
         <v>774</v>
       </c>
-      <c r="K190" s="64" t="s">
+      <c r="K190" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="L190" s="64" t="s">
+      <c r="L190" s="61" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="191" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C191" s="64" t="s">
+      <c r="C191" s="61" t="s">
         <v>776</v>
       </c>
-      <c r="D191" s="64" t="s">
+      <c r="D191" s="61" t="s">
         <v>777</v>
       </c>
-      <c r="G191" s="64" t="s">
+      <c r="G191" s="61" t="s">
         <v>776</v>
       </c>
-      <c r="H191" s="64" t="s">
+      <c r="H191" s="61" t="s">
         <v>777</v>
       </c>
-      <c r="K191" s="64" t="s">
+      <c r="K191" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="L191" s="64" t="s">
+      <c r="L191" s="61" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="192" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C192" s="64" t="s">
+      <c r="C192" s="61" t="s">
         <v>779</v>
       </c>
-      <c r="D192" s="64" t="s">
+      <c r="D192" s="61" t="s">
         <v>780</v>
       </c>
-      <c r="G192" s="64" t="s">
+      <c r="G192" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="H192" s="64" t="s">
+      <c r="H192" s="61" t="s">
         <v>781</v>
       </c>
-      <c r="K192" s="64" t="s">
+      <c r="K192" s="61" t="s">
         <v>782</v>
       </c>
-      <c r="L192" s="64" t="s">
+      <c r="L192" s="61" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="193" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="K193" s="64" t="s">
+      <c r="K193" s="61" t="s">
         <v>784</v>
       </c>
-      <c r="L193" s="64" t="s">
+      <c r="L193" s="61" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="194" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C194" s="64" t="s">
+      <c r="C194" s="61" t="s">
         <v>763</v>
       </c>
-      <c r="D194" s="64" t="s">
+      <c r="D194" s="61" t="s">
         <v>764</v>
       </c>
-      <c r="G194" s="64" t="s">
+      <c r="G194" s="61" t="s">
         <v>763</v>
       </c>
-      <c r="H194" s="64" t="s">
+      <c r="H194" s="61" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="195" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C195" s="64" t="s">
+      <c r="C195" s="61" t="s">
         <v>765</v>
       </c>
-      <c r="D195" s="64" t="s">
+      <c r="D195" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="G195" s="64" t="s">
+      <c r="G195" s="61" t="s">
         <v>765</v>
       </c>
-      <c r="H195" s="64" t="s">
+      <c r="H195" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="K195" s="64" t="s">
+      <c r="K195" s="61" t="s">
         <v>763</v>
       </c>
-      <c r="L195" s="64" t="s">
+      <c r="L195" s="61" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="196" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C196" s="64" t="s">
+      <c r="C196" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="D196" s="63" t="s">
+      <c r="D196" s="60" t="s">
         <v>771</v>
       </c>
-      <c r="G196" s="64" t="s">
+      <c r="G196" s="61" t="s">
         <v>769</v>
       </c>
-      <c r="H196" s="63" t="s">
+      <c r="H196" s="60" t="s">
         <v>770</v>
       </c>
-      <c r="K196" s="64" t="s">
+      <c r="K196" s="61" t="s">
         <v>765</v>
       </c>
-      <c r="L196" s="63" t="s">
+      <c r="L196" s="60" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="197" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C197" s="64" t="s">
+      <c r="C197" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="D197" s="64" t="s">
+      <c r="D197" s="61" t="s">
         <v>774</v>
       </c>
-      <c r="G197" s="64" t="s">
+      <c r="G197" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="H197" s="64" t="s">
+      <c r="H197" s="61" t="s">
         <v>774</v>
       </c>
-      <c r="K197" s="64" t="s">
+      <c r="K197" s="61" t="s">
         <v>769</v>
       </c>
-      <c r="L197" s="63" t="s">
+      <c r="L197" s="60" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="198" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C198" s="64" t="s">
+      <c r="C198" s="61" t="s">
         <v>776</v>
       </c>
-      <c r="D198" s="64" t="s">
+      <c r="D198" s="61" t="s">
         <v>777</v>
       </c>
-      <c r="G198" s="64" t="s">
+      <c r="G198" s="61" t="s">
         <v>776</v>
       </c>
-      <c r="H198" s="64" t="s">
+      <c r="H198" s="61" t="s">
         <v>777</v>
       </c>
-      <c r="K198" s="64" t="s">
+      <c r="K198" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="L198" s="64" t="s">
+      <c r="L198" s="61" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="199" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C199" s="64" t="s">
+      <c r="C199" s="61" t="s">
         <v>779</v>
       </c>
-      <c r="D199" s="64" t="s">
+      <c r="D199" s="61" t="s">
         <v>780</v>
       </c>
-      <c r="G199" s="64" t="s">
+      <c r="G199" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="H199" s="64" t="s">
+      <c r="H199" s="61" t="s">
         <v>781</v>
       </c>
-      <c r="K199" s="64" t="s">
+      <c r="K199" s="61" t="s">
         <v>787</v>
       </c>
-      <c r="L199" s="64" t="s">
+      <c r="L199" s="61" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="200" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="K200" s="64" t="s">
+      <c r="K200" s="61" t="s">
         <v>789</v>
       </c>
-      <c r="L200" s="64" t="s">
+      <c r="L200" s="61" t="s">
         <v>790</v>
       </c>
     </row>
@@ -19881,614 +20523,614 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:AMK285"/>
+  <dimension ref="A2:AMK332"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView topLeftCell="A157" zoomScale="89" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P177" sqref="P177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="75" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="75" customWidth="1"/>
-    <col min="3" max="1025" width="8.75" style="75" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="72" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="72" customWidth="1"/>
+    <col min="3" max="1025" width="8.75" style="72" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="72" t="s">
         <v>791</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="72" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="72" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="72" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="72" t="s">
         <v>795</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="72" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="72" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="72" t="s">
         <v>798</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="72" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="72" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="72" t="s">
         <v>801</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="72" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="72" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="72" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="72" t="s">
         <v>805</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="72" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="72" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="72" t="s">
         <v>808</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="72" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="72" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="72" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="72" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="72" t="s">
         <v>813</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="72" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="72" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="72" t="s">
         <v>816</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="72" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="72" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="72" t="s">
         <v>819</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="72" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="72" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="73" t="s">
         <v>822</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="72" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="72" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="72" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="72" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B72" s="76" t="s">
+      <c r="B72" s="73" t="s">
         <v>827</v>
       </c>
-      <c r="C72" s="75" t="s">
+      <c r="C72" s="72" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="74" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C74" s="77"/>
+      <c r="C74" s="74"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B75" s="75" t="s">
+      <c r="B75" s="72" t="s">
         <v>830</v>
       </c>
-      <c r="C75" s="75" t="s">
+      <c r="C75" s="72" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="72" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C77" s="75" t="s">
+      <c r="C77" s="72" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C78" s="75" t="s">
+      <c r="C78" s="72" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C79" s="75" t="s">
+      <c r="C79" s="72" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C80" s="78" t="s">
+      <c r="C80" s="75" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="75" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" s="72" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C82" s="75" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82" s="72" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B83" s="75" t="s">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B115" s="72" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C84" s="75" t="s">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C116" s="72" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C85" s="75" t="s">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C117" s="72" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C86" s="75" t="s">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C118" s="72" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B88" s="79" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B120" s="76" t="s">
         <v>843</v>
       </c>
-      <c r="C88" s="75" t="s">
+      <c r="C120" s="72" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C89" s="75" t="s">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C121" s="72" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C90" s="78" t="s">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C122" s="75" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C91" s="79" t="s">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C123" s="76" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C92" s="77"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C93" s="77"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C94" s="77"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C95" s="77"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="77"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C97" s="77"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C98" s="77"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="77"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C100" s="77"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C101" s="77"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C102" s="77"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C103" s="77"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="77"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="77"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C106" s="77"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C107" s="77"/>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C108" s="77"/>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C109" s="77"/>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C110" s="77"/>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C111" s="77"/>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C112" s="77"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C113" s="77"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C114" s="77"/>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C115" s="77"/>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C116" s="77"/>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C117" s="77"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C118" s="77"/>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C119" s="77"/>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C120" s="77"/>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C121" s="77"/>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C122" s="77"/>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B123" s="75" t="s">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C124" s="74"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C125" s="74"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C126" s="74"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C127" s="74"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C128" s="74"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C129" s="74"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C130" s="74"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C131" s="74"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C132" s="74"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C133" s="74"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134" s="74"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C135" s="74"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C136" s="74"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C137" s="74"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C138" s="74"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C139" s="74"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C140" s="74"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C141" s="74"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C142" s="74"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C143" s="74"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C144" s="74"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C145" s="74"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C146" s="74"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C147" s="74"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C148" s="74"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C149" s="74"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C150" s="74"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C151" s="74"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C152" s="74"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C153" s="74"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C154" s="74"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B155" s="72" t="s">
         <v>848</v>
       </c>
-      <c r="C123" s="75" t="s">
+      <c r="C155" s="72" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C124" s="75" t="s">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C156" s="72" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C125" s="75" t="s">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C157" s="72" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C126" s="75" t="s">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C158" s="72" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C127" s="75" t="s">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C159" s="72" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C128" s="75" t="s">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C160" s="72" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B129" s="75" t="s">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B161" s="72" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C130" s="75" t="s">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C162" s="72" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C131" s="77" t="s">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C163" s="74" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C132" s="75" t="s">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C164" s="72" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B134" s="75" t="s">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B172" s="72" t="s">
         <v>859</v>
       </c>
-      <c r="C134" s="75" t="s">
+      <c r="C172" s="72" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C135" s="75" t="s">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C173" s="72" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C136" s="75" t="s">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C174" s="72" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B137" s="75" t="s">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B175" s="72" t="s">
         <v>863</v>
       </c>
-      <c r="C137" s="75" t="s">
+      <c r="C175" s="72" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C138" s="75" t="s">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C176" s="72" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B140" s="75" t="s">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B178" s="72" t="s">
         <v>866</v>
       </c>
-      <c r="E140" s="75" t="s">
+      <c r="E178" s="72" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C141" s="75" t="s">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C179" s="72" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A193" s="79" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240" s="76" t="s">
         <v>869</v>
       </c>
-      <c r="B193" s="75" t="s">
+      <c r="B240" s="72" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B194" s="75" t="s">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B241" s="72" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B195" s="75" t="s">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B242" s="72" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B196" s="75" t="s">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B243" s="72" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B197" s="75" t="s">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B244" s="72" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B198" s="75" t="s">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B245" s="72" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B199" s="75" t="s">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B246" s="72" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B200" s="75" t="s">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B247" s="72" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B201" s="75" t="s">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B248" s="72" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B202" s="75" t="s">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B249" s="72" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B203" s="75" t="s">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B250" s="72" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B204" s="75" t="s">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B251" s="72" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B205" s="75" t="s">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B252" s="72" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B206" s="75" t="s">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B253" s="72" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B207" s="75" t="s">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B254" s="72" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B208" s="75" t="s">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B255" s="72" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B209" s="75" t="s">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B256" s="72" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B210" s="75" t="s">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B257" s="72" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B211" s="75" t="s">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B258" s="72" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B212" s="75" t="s">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B259" s="72" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B213" s="75" t="s">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B260" s="72" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B215" s="75" t="s">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B262" s="72" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C216" s="75" t="s">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C263" s="72" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C217" s="75" t="s">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C264" s="72" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C218" s="75" t="s">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C265" s="72" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C220" s="75" t="s">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C267" s="72" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C221" s="75" t="s">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C268" s="72" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="285" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B285" s="76" t="s">
+    <row r="332" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B332" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="N285" s="76" t="s">
+      <c r="N332" s="73" t="s">
         <v>185</v>
       </c>
     </row>
@@ -20504,96 +21146,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A78:AMK88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="H27" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="8.75" style="75" customWidth="1"/>
+    <col min="1" max="1025" width="8.75" style="72" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="78" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E78" s="75" t="s">
+      <c r="E78" s="72" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E79" s="75" t="s">
+      <c r="E79" s="72" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E80" s="75">
+      <c r="E80" s="72">
         <v>44.3</v>
       </c>
-      <c r="F80" s="75" t="s">
+      <c r="F80" s="72" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E81" s="75">
+      <c r="E81" s="72">
         <f>E80*1000</f>
         <v>44300</v>
       </c>
-      <c r="F81" s="75" t="s">
+      <c r="F81" s="72" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E82" s="75">
+      <c r="E82" s="72">
         <f>E81*2*2</f>
         <v>177200</v>
       </c>
-      <c r="F82" s="75" t="s">
+      <c r="F82" s="72" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E83" s="75">
+      <c r="E83" s="72">
         <f>E82/1000</f>
         <v>177.2</v>
       </c>
-      <c r="F83" s="75" t="s">
+      <c r="F83" s="72" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E85" s="75" t="s">
+      <c r="E85" s="72" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E86" s="75">
+      <c r="E86" s="72">
         <v>12</v>
       </c>
-      <c r="F86" s="75" t="s">
+      <c r="F86" s="72" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E87" s="75">
+      <c r="E87" s="72">
         <f>E86*1000000</f>
         <v>12000000</v>
       </c>
-      <c r="F87" s="75" t="s">
+      <c r="F87" s="72" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E88" s="75">
+      <c r="E88" s="72">
         <f>E87/1000/8</f>
         <v>1500</v>
       </c>
-      <c r="F88" s="75" t="s">
+      <c r="F88" s="72" t="s">
         <v>942</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20627,10 +21269,10 @@
       <c r="T10" t="s">
         <v>899</v>
       </c>
-      <c r="U10" s="80" t="s">
+      <c r="U10" s="77" t="s">
         <v>900</v>
       </c>
-      <c r="V10" s="81">
+      <c r="V10" s="78">
         <v>22050</v>
       </c>
     </row>
@@ -20638,7 +21280,7 @@
       <c r="T11" t="s">
         <v>901</v>
       </c>
-      <c r="U11" s="80" t="s">
+      <c r="U11" s="77" t="s">
         <v>902</v>
       </c>
       <c r="V11">
@@ -20659,85 +21301,85 @@
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="W13" s="80"/>
+      <c r="W13" s="77"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.15">
       <c r="T14" t="s">
         <v>905</v>
       </c>
-      <c r="V14" s="81">
+      <c r="V14" s="78">
         <v>330</v>
       </c>
-      <c r="W14" s="82" t="s">
+      <c r="W14" s="79" t="s">
         <v>906</v>
       </c>
-      <c r="X14" s="83" t="s">
+      <c r="X14" s="80" t="s">
         <v>907</v>
       </c>
-      <c r="Y14" s="84" t="s">
+      <c r="Y14" s="81" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="T15" s="85" t="s">
+      <c r="T15" s="82" t="s">
         <v>909</v>
       </c>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86">
+      <c r="U15" s="83"/>
+      <c r="V15" s="83">
         <f>V11/V14</f>
         <v>2.1872458337373096E-8</v>
       </c>
-      <c r="W15" s="87">
+      <c r="W15" s="84">
         <f>V15*10^6</f>
         <v>2.1872458337373096E-2</v>
       </c>
-      <c r="X15" s="88">
+      <c r="X15" s="85">
         <f>V15*10^9</f>
         <v>21.872458337373097</v>
       </c>
-      <c r="Y15" s="89">
+      <c r="Y15" s="86">
         <f>V15*10^12</f>
         <v>21872.458337373097</v>
       </c>
     </row>
     <row r="19" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="W19" s="82" t="s">
+      <c r="W19" s="79" t="s">
         <v>906</v>
       </c>
-      <c r="X19" s="83" t="s">
+      <c r="X19" s="80" t="s">
         <v>907</v>
       </c>
-      <c r="Y19" s="84" t="s">
+      <c r="Y19" s="81" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="20" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="T20" s="85" t="s">
+      <c r="T20" s="82" t="s">
         <v>909</v>
       </c>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86">
+      <c r="U20" s="83"/>
+      <c r="V20" s="83">
         <f>W20*10^-6</f>
         <v>1E-8</v>
       </c>
-      <c r="W20" s="90">
+      <c r="W20" s="87">
         <v>0.01</v>
       </c>
-      <c r="X20" s="88">
+      <c r="X20" s="85">
         <f>V20*10^9</f>
         <v>10</v>
       </c>
-      <c r="Y20" s="89">
+      <c r="Y20" s="86">
         <f>V20*10^12</f>
         <v>10000</v>
       </c>
     </row>
     <row r="21" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="T21" s="91" t="s">
+      <c r="T21" s="88" t="s">
         <v>905</v>
       </c>
-      <c r="U21" s="92"/>
-      <c r="V21" s="93">
+      <c r="U21" s="89"/>
+      <c r="V21" s="90">
         <f>V11/V20</f>
         <v>721.79112513331222</v>
       </c>
@@ -20750,60 +21392,60 @@
         <f>1/SQRT((1+(V12*V11)^2))</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="W23" s="80"/>
+      <c r="W23" s="77"/>
     </row>
     <row r="26" spans="20:25" x14ac:dyDescent="0.15">
       <c r="T26" t="s">
         <v>911</v>
       </c>
-      <c r="W26" s="82" t="s">
+      <c r="W26" s="79" t="s">
         <v>906</v>
       </c>
-      <c r="X26" s="83" t="s">
+      <c r="X26" s="80" t="s">
         <v>907</v>
       </c>
-      <c r="Y26" s="84" t="s">
+      <c r="Y26" s="81" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="27" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="T27" s="85" t="s">
+      <c r="T27" s="82" t="s">
         <v>909</v>
       </c>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86">
+      <c r="U27" s="83"/>
+      <c r="V27" s="83">
         <f>W27*10^-6</f>
         <v>1E-8</v>
       </c>
-      <c r="W27" s="94">
+      <c r="W27" s="91">
         <v>0.01</v>
       </c>
-      <c r="X27" s="88">
+      <c r="X27" s="85">
         <f>V27*10^9</f>
         <v>10</v>
       </c>
-      <c r="Y27" s="89">
+      <c r="Y27" s="86">
         <f>V27*10^12</f>
         <v>10000</v>
       </c>
     </row>
     <row r="28" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="T28" s="85" t="s">
+      <c r="T28" s="82" t="s">
         <v>905</v>
       </c>
-      <c r="U28" s="86"/>
-      <c r="V28" s="95">
+      <c r="U28" s="83"/>
+      <c r="V28" s="92">
         <v>1000</v>
       </c>
     </row>
     <row r="30" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="T30" s="85" t="s">
+      <c r="T30" s="82" t="s">
         <v>899</v>
       </c>
-      <c r="U30" s="86" t="s">
+      <c r="U30" s="83" t="s">
         <v>900</v>
       </c>
-      <c r="V30" s="96">
+      <c r="V30" s="93">
         <f>1/(2*PI()*V27*V28)</f>
         <v>15915.494309189537</v>
       </c>
@@ -20812,54 +21454,54 @@
       <c r="T36" t="s">
         <v>911</v>
       </c>
-      <c r="W36" s="82" t="s">
+      <c r="W36" s="79" t="s">
         <v>906</v>
       </c>
-      <c r="X36" s="83" t="s">
+      <c r="X36" s="80" t="s">
         <v>907</v>
       </c>
-      <c r="Y36" s="84" t="s">
+      <c r="Y36" s="81" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="37" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="T37" s="85" t="s">
+      <c r="T37" s="82" t="s">
         <v>909</v>
       </c>
-      <c r="U37" s="86"/>
-      <c r="V37" s="86">
+      <c r="U37" s="83"/>
+      <c r="V37" s="83">
         <f>W37*10^-6</f>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="W37" s="97">
+      <c r="W37" s="94">
         <v>1E-3</v>
       </c>
-      <c r="X37" s="88">
+      <c r="X37" s="85">
         <f>V37*10^9</f>
         <v>1</v>
       </c>
-      <c r="Y37" s="89">
+      <c r="Y37" s="86">
         <f>V37*10^12</f>
         <v>1000.0000000000001</v>
       </c>
     </row>
     <row r="38" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="T38" s="85" t="s">
+      <c r="T38" s="82" t="s">
         <v>905</v>
       </c>
-      <c r="U38" s="86"/>
-      <c r="V38" s="95">
+      <c r="U38" s="83"/>
+      <c r="V38" s="92">
         <v>10000</v>
       </c>
     </row>
     <row r="40" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="T40" s="85" t="s">
+      <c r="T40" s="82" t="s">
         <v>899</v>
       </c>
-      <c r="U40" s="86" t="s">
+      <c r="U40" s="83" t="s">
         <v>900</v>
       </c>
-      <c r="V40" s="96">
+      <c r="V40" s="93">
         <f>1/(2*PI()*V37*V38)</f>
         <v>15915.494309189533</v>
       </c>
@@ -20868,54 +21510,54 @@
       <c r="T47" t="s">
         <v>911</v>
       </c>
-      <c r="W47" s="82" t="s">
+      <c r="W47" s="79" t="s">
         <v>906</v>
       </c>
-      <c r="X47" s="83" t="s">
+      <c r="X47" s="80" t="s">
         <v>907</v>
       </c>
-      <c r="Y47" s="84" t="s">
+      <c r="Y47" s="81" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="48" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="T48" s="85" t="s">
+      <c r="T48" s="82" t="s">
         <v>909</v>
       </c>
-      <c r="U48" s="86"/>
-      <c r="V48" s="86">
+      <c r="U48" s="83"/>
+      <c r="V48" s="83">
         <f>W48*10^-6</f>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="W48" s="94">
+      <c r="W48" s="91">
         <v>1E-3</v>
       </c>
-      <c r="X48" s="88">
+      <c r="X48" s="85">
         <f>V48*10^9</f>
         <v>1</v>
       </c>
-      <c r="Y48" s="89">
+      <c r="Y48" s="86">
         <f>V48*10^12</f>
         <v>1000.0000000000001</v>
       </c>
     </row>
     <row r="49" spans="16:22" x14ac:dyDescent="0.15">
-      <c r="T49" s="85" t="s">
+      <c r="T49" s="82" t="s">
         <v>905</v>
       </c>
-      <c r="U49" s="86"/>
-      <c r="V49" s="95">
+      <c r="U49" s="83"/>
+      <c r="V49" s="92">
         <v>20000</v>
       </c>
     </row>
     <row r="51" spans="16:22" x14ac:dyDescent="0.15">
-      <c r="T51" s="85" t="s">
+      <c r="T51" s="82" t="s">
         <v>899</v>
       </c>
-      <c r="U51" s="86" t="s">
+      <c r="U51" s="83" t="s">
         <v>900</v>
       </c>
-      <c r="V51" s="96">
+      <c r="V51" s="93">
         <f>1/(2*PI()*V48*V49)</f>
         <v>7957.7471545947665</v>
       </c>
@@ -20944,7 +21586,7 @@
       <c r="T129" t="s">
         <v>914</v>
       </c>
-      <c r="U129" s="81">
+      <c r="U129" s="78">
         <v>10000</v>
       </c>
     </row>
@@ -20960,13 +21602,13 @@
       <c r="T131" t="s">
         <v>916</v>
       </c>
-      <c r="U131" s="62">
+      <c r="U131" s="59">
         <v>1000</v>
       </c>
-      <c r="W131" s="80"/>
+      <c r="W131" s="77"/>
     </row>
     <row r="132" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="W132" s="80"/>
+      <c r="W132" s="77"/>
     </row>
     <row r="133" spans="20:25" x14ac:dyDescent="0.15">
       <c r="T133" t="s">
@@ -20981,7 +21623,7 @@
       </c>
     </row>
     <row r="134" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="W134" s="80" t="s">
+      <c r="W134" s="77" t="s">
         <v>906</v>
       </c>
       <c r="X134" t="s">
@@ -21002,7 +21644,7 @@
         <f>2*U130/(V133*U131)</f>
         <v>2.38732414637843E-8</v>
       </c>
-      <c r="W135" s="98">
+      <c r="W135" s="95">
         <f>V135*10^6</f>
         <v>2.3873241463784299E-2</v>
       </c>
@@ -21026,7 +21668,7 @@
         <f>1/(2*U130*V133*U131)</f>
         <v>1.0610329539459689E-8</v>
       </c>
-      <c r="W136" s="98">
+      <c r="W136" s="95">
         <f>V136*10^6</f>
         <v>1.0610329539459689E-2</v>
       </c>
@@ -21040,16 +21682,16 @@
       </c>
     </row>
     <row r="137" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="W137" s="80"/>
+      <c r="W137" s="77"/>
     </row>
     <row r="138" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="W138" s="80"/>
+      <c r="W138" s="77"/>
     </row>
     <row r="139" spans="20:25" x14ac:dyDescent="0.15">
       <c r="T139" t="s">
         <v>914</v>
       </c>
-      <c r="U139" s="81">
+      <c r="U139" s="78">
         <v>10000</v>
       </c>
     </row>
@@ -21065,13 +21707,13 @@
       <c r="T141" t="s">
         <v>916</v>
       </c>
-      <c r="U141" s="62">
+      <c r="U141" s="59">
         <v>100000</v>
       </c>
-      <c r="W141" s="80"/>
+      <c r="W141" s="77"/>
     </row>
     <row r="142" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="W142" s="80"/>
+      <c r="W142" s="77"/>
     </row>
     <row r="143" spans="20:25" x14ac:dyDescent="0.15">
       <c r="T143" t="s">
@@ -21086,7 +21728,7 @@
       </c>
     </row>
     <row r="144" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="W144" s="80" t="s">
+      <c r="W144" s="77" t="s">
         <v>906</v>
       </c>
       <c r="X144" t="s">
@@ -21107,7 +21749,7 @@
         <f>2*U140/(V143*U141)</f>
         <v>2.3873241463784303E-10</v>
       </c>
-      <c r="W145" s="98">
+      <c r="W145" s="95">
         <f>V145*10^6</f>
         <v>2.3873241463784301E-4</v>
       </c>
@@ -21131,7 +21773,7 @@
         <f>1/(2*U140*V143*U141)</f>
         <v>1.061032953945969E-10</v>
       </c>
-      <c r="W146" s="98">
+      <c r="W146" s="95">
         <f>V146*10^6</f>
         <v>1.0610329539459691E-4</v>
       </c>
@@ -21148,81 +21790,81 @@
       <c r="T153" t="s">
         <v>921</v>
       </c>
-      <c r="W153" s="80"/>
+      <c r="W153" s="77"/>
     </row>
     <row r="154" spans="20:25" x14ac:dyDescent="0.15">
       <c r="T154" t="s">
         <v>922</v>
       </c>
-      <c r="U154" s="81">
+      <c r="U154" s="78">
         <v>10000</v>
       </c>
-      <c r="V154" s="80"/>
-      <c r="W154" s="80"/>
+      <c r="V154" s="77"/>
+      <c r="W154" s="77"/>
     </row>
     <row r="155" spans="20:25" x14ac:dyDescent="0.15">
       <c r="T155" t="s">
         <v>923</v>
       </c>
-      <c r="U155" s="81">
+      <c r="U155" s="78">
         <v>10000</v>
       </c>
-      <c r="V155" s="80"/>
-      <c r="W155" s="80"/>
+      <c r="V155" s="77"/>
+      <c r="W155" s="77"/>
     </row>
     <row r="156" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="U156" s="80"/>
-      <c r="V156" s="80"/>
-      <c r="W156" s="80"/>
+      <c r="U156" s="77"/>
+      <c r="V156" s="77"/>
+      <c r="W156" s="77"/>
     </row>
     <row r="157" spans="20:25" x14ac:dyDescent="0.15">
       <c r="T157" t="s">
         <v>924</v>
       </c>
-      <c r="U157" s="80">
+      <c r="U157" s="77">
         <f>1+(U154/U155)</f>
         <v>2</v>
       </c>
-      <c r="V157" s="80"/>
-      <c r="W157" s="80"/>
+      <c r="V157" s="77"/>
+      <c r="W157" s="77"/>
     </row>
     <row r="158" spans="20:25" x14ac:dyDescent="0.15">
       <c r="T158" t="s">
         <v>915</v>
       </c>
-      <c r="U158" s="80">
+      <c r="U158" s="77">
         <f>1/(3-U157)</f>
         <v>1</v>
       </c>
-      <c r="V158" s="80"/>
-      <c r="W158" s="80"/>
+      <c r="V158" s="77"/>
+      <c r="W158" s="77"/>
     </row>
     <row r="159" spans="20:25" x14ac:dyDescent="0.15">
-      <c r="U159" s="80"/>
-      <c r="V159" s="80"/>
-      <c r="W159" s="80"/>
+      <c r="U159" s="77"/>
+      <c r="V159" s="77"/>
+      <c r="W159" s="77"/>
     </row>
     <row r="160" spans="20:25" x14ac:dyDescent="0.15">
       <c r="T160" t="s">
         <v>925</v>
       </c>
-      <c r="U160" s="81">
+      <c r="U160" s="78">
         <v>15000</v>
       </c>
-      <c r="V160" s="80" t="s">
+      <c r="V160" s="77" t="s">
         <v>926</v>
       </c>
-      <c r="W160" s="80"/>
+      <c r="W160" s="77"/>
     </row>
     <row r="161" spans="20:23" x14ac:dyDescent="0.15">
       <c r="T161" t="s">
         <v>903</v>
       </c>
-      <c r="U161" s="80">
+      <c r="U161" s="77">
         <f>2*PI()*U160</f>
         <v>94247.779607693796</v>
       </c>
-      <c r="V161" s="80"/>
+      <c r="V161" s="77"/>
     </row>
     <row r="162" spans="20:23" x14ac:dyDescent="0.15">
       <c r="V162" t="s">
@@ -21240,7 +21882,7 @@
         <f>V163*10^-6</f>
         <v>1E-8</v>
       </c>
-      <c r="V163" s="99">
+      <c r="V163" s="96">
         <v>0.01</v>
       </c>
       <c r="W163">
@@ -21255,7 +21897,7 @@
       <c r="U164" t="s">
         <v>928</v>
       </c>
-      <c r="V164" s="80">
+      <c r="V164" s="77">
         <f>1/(U161*U163)</f>
         <v>1061.032953945969</v>
       </c>
@@ -21272,43 +21914,43 @@
       <c r="P197" t="s">
         <v>911</v>
       </c>
-      <c r="S197" s="82" t="s">
+      <c r="S197" s="79" t="s">
         <v>906</v>
       </c>
-      <c r="T197" s="83" t="s">
+      <c r="T197" s="80" t="s">
         <v>907</v>
       </c>
-      <c r="U197" s="84" t="s">
+      <c r="U197" s="81" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="198" spans="15:21" x14ac:dyDescent="0.15">
-      <c r="P198" s="85" t="s">
+      <c r="P198" s="82" t="s">
         <v>909</v>
       </c>
-      <c r="Q198" s="86"/>
-      <c r="R198" s="86">
+      <c r="Q198" s="83"/>
+      <c r="R198" s="83">
         <f>S198*10^-6</f>
         <v>1E-8</v>
       </c>
-      <c r="S198" s="90">
+      <c r="S198" s="87">
         <v>0.01</v>
       </c>
-      <c r="T198" s="88">
+      <c r="T198" s="85">
         <f>R198*10^9</f>
         <v>10</v>
       </c>
-      <c r="U198" s="89">
+      <c r="U198" s="86">
         <f>R198*10^12</f>
         <v>10000</v>
       </c>
     </row>
     <row r="199" spans="15:21" x14ac:dyDescent="0.15">
-      <c r="P199" s="85" t="s">
+      <c r="P199" s="82" t="s">
         <v>905</v>
       </c>
-      <c r="Q199" s="86"/>
-      <c r="R199" s="100">
+      <c r="Q199" s="83"/>
+      <c r="R199" s="97">
         <v>1000</v>
       </c>
     </row>
@@ -21316,13 +21958,13 @@
       <c r="O201" t="s">
         <v>931</v>
       </c>
-      <c r="P201" s="85" t="s">
+      <c r="P201" s="82" t="s">
         <v>932</v>
       </c>
-      <c r="Q201" s="86" t="s">
+      <c r="Q201" s="83" t="s">
         <v>933</v>
       </c>
-      <c r="R201" s="96">
+      <c r="R201" s="93">
         <f>1/(2*PI()*R198*R199)</f>
         <v>15915.494309189537</v>
       </c>
@@ -21334,43 +21976,43 @@
       <c r="P205" t="s">
         <v>911</v>
       </c>
-      <c r="S205" s="82" t="s">
+      <c r="S205" s="79" t="s">
         <v>906</v>
       </c>
-      <c r="T205" s="83" t="s">
+      <c r="T205" s="80" t="s">
         <v>907</v>
       </c>
-      <c r="U205" s="84" t="s">
+      <c r="U205" s="81" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="206" spans="15:21" x14ac:dyDescent="0.15">
-      <c r="P206" s="85" t="s">
+      <c r="P206" s="82" t="s">
         <v>909</v>
       </c>
-      <c r="Q206" s="86"/>
-      <c r="R206" s="86">
+      <c r="Q206" s="83"/>
+      <c r="R206" s="83">
         <f>S206*10^-6</f>
         <v>1E-8</v>
       </c>
-      <c r="S206" s="90">
+      <c r="S206" s="87">
         <v>0.01</v>
       </c>
-      <c r="T206" s="88">
+      <c r="T206" s="85">
         <f>R206*10^9</f>
         <v>10</v>
       </c>
-      <c r="U206" s="89">
+      <c r="U206" s="86">
         <f>R206*10^12</f>
         <v>10000</v>
       </c>
     </row>
     <row r="207" spans="15:21" x14ac:dyDescent="0.15">
-      <c r="P207" s="85" t="s">
+      <c r="P207" s="82" t="s">
         <v>905</v>
       </c>
-      <c r="Q207" s="86"/>
-      <c r="R207" s="100">
+      <c r="Q207" s="83"/>
+      <c r="R207" s="97">
         <v>1000</v>
       </c>
     </row>
@@ -21378,13 +22020,13 @@
       <c r="O209" t="s">
         <v>931</v>
       </c>
-      <c r="P209" s="85" t="s">
+      <c r="P209" s="82" t="s">
         <v>935</v>
       </c>
-      <c r="Q209" s="86" t="s">
+      <c r="Q209" s="83" t="s">
         <v>936</v>
       </c>
-      <c r="R209" s="96">
+      <c r="R209" s="93">
         <f>1/(2*PI()*R206*R207)</f>
         <v>15915.494309189537</v>
       </c>

--- a/config_PIC24FJ64GB002_UsbStudy_02.xlsx
+++ b/config_PIC24FJ64GB002_UsbStudy_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mura01\Google ドライブ\PIC24F\20190829_USBMSCtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD4E13-9F12-4A65-AE28-39E521A7173A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A4B12A-05B3-45E2-94DD-6039CEBB1555}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="480" windowWidth="24900" windowHeight="15120" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="120" windowWidth="17895" windowHeight="12720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="991">
   <si>
     <t>CPU</t>
   </si>
@@ -4001,6 +4001,168 @@
     <t>bits/sec</t>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>0x00,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x05,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x01,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x00,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x00</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x09,</t>
+  </si>
+  <si>
+    <t>USB アドレス設定コマンド。　アドレス 1 に設定（赤字の部分）</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>USB Config設定コマンド。　Config 1 に設定(赤字の部分）</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>bmRequestType</t>
+  </si>
+  <si>
+    <t>bRequest</t>
+  </si>
+  <si>
+    <t>wValue</t>
+  </si>
+  <si>
+    <t>wIndex</t>
+  </si>
+  <si>
+    <t>wLength</t>
+  </si>
+  <si>
+    <t>*wValue,wIndex,wLengthは、リトルエンディアン。0x1234は、0x34 0x12の順となる。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>bmRequestTypeはビットマップ形式であり、各ビットの意味は以下の通り。</t>
+  </si>
+  <si>
+    <t>D7: Data transfer direction</t>
+  </si>
+  <si>
+    <t>0 = Host-to-device</t>
+  </si>
+  <si>
+    <t>1 = Device-to-host</t>
+  </si>
+  <si>
+    <t>D6-D5: Type</t>
+  </si>
+  <si>
+    <t>0 = Standard</t>
+  </si>
+  <si>
+    <t>1 = Class</t>
+  </si>
+  <si>
+    <t>2 = Vendor</t>
+  </si>
+  <si>
+    <t>3 = Reserved</t>
+  </si>
+  <si>
+    <t>D4-D0: Recipient</t>
+  </si>
+  <si>
+    <t>0 = Device</t>
+  </si>
+  <si>
+    <t>1 = Interface</t>
+  </si>
+  <si>
+    <t>2 = Endpoint</t>
+  </si>
+  <si>
+    <t>3 = Other</t>
+  </si>
+  <si>
+    <t>4…31 = Reserved</t>
+  </si>
+  <si>
+    <t>bRequestの値は次の通り。</t>
+  </si>
+  <si>
+    <t>0 = GET_STATUS</t>
+  </si>
+  <si>
+    <t>1 = CLEAR_FEATURE</t>
+  </si>
+  <si>
+    <t>2 = Reserved for future use</t>
+  </si>
+  <si>
+    <t>3 = SET_FEATURE</t>
+  </si>
+  <si>
+    <t>4 = Reserved for future use</t>
+  </si>
+  <si>
+    <t>5 = SET_ADDRESS</t>
+  </si>
+  <si>
+    <t>6 = GET_DESCRIPTOR</t>
+  </si>
+  <si>
+    <t>7 = SET_DESCRIPTOR</t>
+  </si>
+  <si>
+    <t>8 = GET_CONFIGURATION</t>
+  </si>
+  <si>
+    <t>9 = SET_CONFIGURATION</t>
+  </si>
+  <si>
+    <t>10 = GET_INTERFACE</t>
+  </si>
+  <si>
+    <t>11 = SET_INTERFACE</t>
+  </si>
+  <si>
+    <t>12 = SYNCH_FRAME</t>
+  </si>
 </sst>
 </file>
 
@@ -4012,7 +4174,7 @@
     <numFmt numFmtId="178" formatCode="#,##0.000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4073,6 +4235,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4433,7 +4602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4626,6 +4795,17 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7958,6 +8138,50 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>507690</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297AEA62-4AFB-4881-935F-C21CA877C7A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10498667" y="2370667"/>
+          <a:ext cx="2476190" cy="1857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -10316,15 +10540,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>529166</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>141112</xdr:rowOff>
+      <xdr:colOff>542772</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>153728</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>26643</xdr:rowOff>
+      <xdr:colOff>167334</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>149107</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10339,8 +10563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5221110" y="8607779"/>
-          <a:ext cx="4986785" cy="1473031"/>
+          <a:off x="5210022" y="9837964"/>
+          <a:ext cx="4958562" cy="1809179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10371,8 +10595,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>　U1ADDR</a:t>
@@ -10380,38 +10605,40 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>　　USB</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>デバイスに割振ったアドレスを指定 </a:t>
+            <a:t>デバイスに割振ったアドレスを指定</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>= 1</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>　</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>U1BDTP1</a:t>
@@ -10419,56 +10646,119 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0">
               <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>　　BDT</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0">
               <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>テーブルの上位</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0">
               <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>7BITS</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0">
               <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>のアドレスを格納</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0">
+            <a:effectLst/>
+            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0">
+              <a:effectLst/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0">
+              <a:effectLst/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>U1CON</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0">
+              <a:effectLst/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0">
+              <a:effectLst/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0">
+              <a:effectLst/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SOFEN=1:SOF packet の自動1ms送信スタート</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -10479,14 +10769,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>87840</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>371520</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>59980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10501,8 +10791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9871920" y="4820040"/>
-          <a:ext cx="4564080" cy="1940400"/>
+          <a:off x="10755840" y="5755821"/>
+          <a:ext cx="4950930" cy="2441230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10534,7 +10824,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　U1TOK ※通信開始のトリガー</a:t>
           </a:r>
@@ -10542,7 +10833,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　PID</a:t>
           </a:r>
@@ -10550,7 +10842,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　　1101:SETUP(TX)トークン</a:t>
           </a:r>
@@ -10558,7 +10851,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　　1001:IN(RX)トークン</a:t>
           </a:r>
@@ -10566,7 +10860,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　　0001:OUT(TX)トークン</a:t>
           </a:r>
@@ -10574,7 +10869,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　EP:通信するEPナンバーを指定</a:t>
           </a:r>
@@ -10582,7 +10878,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　　0000:EP0(SETUP)</a:t>
           </a:r>
@@ -10590,7 +10887,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　　0001:EP1(IN)</a:t>
           </a:r>
@@ -10598,7 +10896,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　　0002:EP2(OUT)</a:t>
           </a:r>
@@ -10609,16 +10908,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>87480</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>522909</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>24552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>382320</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>150999</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10633,8 +10932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9871560" y="6873120"/>
-          <a:ext cx="4575240" cy="1464120"/>
+          <a:off x="5190159" y="11876373"/>
+          <a:ext cx="4962090" cy="2070948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10666,7 +10965,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　U1EP0</a:t>
           </a:r>
@@ -10674,7 +10974,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　LSPD=0,1:ロースピード無効(0)、有効(1)</a:t>
           </a:r>
@@ -10682,15 +10983,24 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　　BETRYDIS=1:NAKトランザクションのリトライ無効</a:t>
+            <a:t>　　BETRYDIS=1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NAKトランザクションのリトライ無効</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　EPRXEN=1:このU1EP0の受信を有効</a:t>
           </a:r>
@@ -10698,7 +11008,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>　　EPTXEN=1:このU1EP0の送信を有効</a:t>
           </a:r>
@@ -10706,14 +11017,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　　EPHSHK=1:自動ハンドシェイクを有効</a:t>
+            <a:t>　　EPHSHK=1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>自動ハンドシェイクを有効</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -10746,8 +11066,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2461193" y="5265758"/>
-          <a:ext cx="7235176" cy="2381964"/>
+          <a:off x="2450610" y="5280373"/>
+          <a:ext cx="7196370" cy="2389020"/>
           <a:chOff x="2450610" y="5122530"/>
           <a:chExt cx="7196370" cy="2312820"/>
         </a:xfrm>
@@ -10799,7 +11119,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　USBメモリ</a:t>
             </a:r>
@@ -10807,7 +11128,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　デバイス</a:t>
             </a:r>
@@ -10902,7 +11224,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　PIC</a:t>
             </a:r>
@@ -10910,7 +11233,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　USB</a:t>
             </a:r>
@@ -10918,7 +11242,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　モジュール</a:t>
             </a:r>
@@ -10971,7 +11296,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　EP0 (SETUP IN, OUT)</a:t>
             </a:r>
@@ -11064,7 +11390,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　EP1 (IN デバイス→ホスト)</a:t>
             </a:r>
@@ -11157,7 +11484,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　EP2 (OUT デバイス←ホスト)</a:t>
             </a:r>
@@ -11170,15 +11498,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>90720</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:colOff>104327</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>393480</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:colOff>407087</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11193,17 +11521,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10758720" y="2606240"/>
-          <a:ext cx="4970010" cy="1752013"/>
+          <a:off x="10772327" y="3345561"/>
+          <a:ext cx="4970010" cy="2097296"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 10897"/>
-            <a:gd name="adj2" fmla="val -454"/>
-            <a:gd name="adj3" fmla="val 11504"/>
-            <a:gd name="adj4" fmla="val -33888"/>
-            <a:gd name="adj5" fmla="val 137277"/>
-            <a:gd name="adj6" fmla="val -34134"/>
+            <a:gd name="adj1" fmla="val 12195"/>
+            <a:gd name="adj2" fmla="val -180"/>
+            <a:gd name="adj3" fmla="val 12249"/>
+            <a:gd name="adj4" fmla="val -35805"/>
+            <a:gd name="adj5" fmla="val 102285"/>
+            <a:gd name="adj6" fmla="val -35777"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -11232,13 +11560,22 @@
         <a:lstStyle/>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>割り込み関係</a:t>
           </a:r>
@@ -11246,59 +11583,99 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　U1Ebits.ATTACHIE=1,0:Enable,disEnable ATTACH interrupt</a:t>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>U1Ebits.ATTACHIE=1,0:Enable,disEnable ATTACH interrupt</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　U1Ebits.DETACHIE=1,0:Enable,disEnable DETACH interrupt</a:t>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>U1Ebits.DETACHIE=1,0:Enable,disEnable DETACH interrupt</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　U1Ebits.SOFIE=1:Enable SOF interrupt</a:t>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>U1Ebits.SOFIE=1:Enable SOF interrupt</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　U1EIE:Enable All Error Interrupts </a:t>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>U1EIE:Enable All Error Interrupts </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>その他</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>　U1CONbits.SOFEN=1:SOF packet の自動1ms送信スタート</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -11315,8 +11692,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>159717</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11331,8 +11708,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10814444" y="8540750"/>
-          <a:ext cx="7671676" cy="3966189"/>
+          <a:off x="10758000" y="8564940"/>
+          <a:ext cx="7632870" cy="5382381"/>
           <a:chOff x="10814444" y="8540750"/>
           <a:chExt cx="7671676" cy="3966189"/>
         </a:xfrm>
@@ -11383,20 +11760,23 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　BDT0 (EP0_RX, IN)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　　UOWN=1:USBモジュールが制御 0:ソフトウェアが制御</a:t>
             </a:r>
@@ -11404,7 +11784,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　　DTS=0:DATA0/1:DATA1</a:t>
             </a:r>
@@ -11412,40 +11793,46 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　　COUNTER:送受信バイト数</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　　ADDRESS:バッファアドレス(DMA転送元先)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　　PID:ハンドシェイクのPIDがリターン</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -11496,20 +11883,23 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　BDT1 (EP0_TX, OUT)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　　UOWN=1:USBモジュールが制御 0:ソフトウェアが制御</a:t>
             </a:r>
@@ -11517,7 +11907,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　　DTS=0:DATA0/1:DATA1</a:t>
             </a:r>
@@ -11525,40 +11916,46 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　　COUNTER:送受信バイト数</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　　ADDRESS:バッファアドレス(DMA転送元先)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　　PID:ハンドシェイクのPIDがリターン</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -11609,7 +12006,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　DATA buffer</a:t>
             </a:r>
@@ -11742,7 +12140,8 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
+                <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>　DATA buffer</a:t>
             </a:r>
@@ -11755,15 +12154,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>188149</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>23519</xdr:rowOff>
+      <xdr:colOff>174542</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>91554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>188149</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152872</xdr:rowOff>
+      <xdr:colOff>174542</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>44014</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11778,8 +12177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16274816" y="8666575"/>
-          <a:ext cx="2681111" cy="834908"/>
+          <a:off x="16176542" y="8936197"/>
+          <a:ext cx="2667000" cy="836924"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -11812,31 +12211,52 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>DATA0/1</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>は、通信しているそれぞれの</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>EP0,EP1,EP2 </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>ごとに、</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>0,1</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>をフリップフロップする必要あり</a:t>
           </a:r>
         </a:p>
@@ -11846,23 +12266,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>175920</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>58327</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>55774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>175920</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>11290</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7727</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>8737</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="線吹き出し 1 (枠付き) 22">
+        <xdr:cNvPr id="24" name="線吹き出し 1 (枠付き) 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11870,15 +12290,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16262587" y="10641660"/>
-          <a:ext cx="2681111" cy="834908"/>
+          <a:off x="6830786" y="8015953"/>
+          <a:ext cx="3178191" cy="837427"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 46918"/>
-            <a:gd name="adj2" fmla="val -438"/>
-            <a:gd name="adj3" fmla="val 70247"/>
-            <a:gd name="adj4" fmla="val -123859"/>
+            <a:gd name="adj1" fmla="val 1848"/>
+            <a:gd name="adj2" fmla="val 99123"/>
+            <a:gd name="adj3" fmla="val 83738"/>
+            <a:gd name="adj4" fmla="val 127295"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -11904,33 +12324,44 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DATA0/1</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>BDT</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は、通信しているそれぞれの</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブルの開始位置は、メモリアドレスの</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>EP0,EP1,EP2 </a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>512BYTE</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ごとに、</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>境界に合わせる必要あり。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>0,1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>をフリップフロップする必要あり</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11938,23 +12369,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>470370</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>164630</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>321904</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>470370</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>117593</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>321904</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="線吹き出し 1 (枠付き) 23">
+        <xdr:cNvPr id="25" name="線吹き出し 1 (枠付き) 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11962,15 +12393,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7843426" y="10571574"/>
-          <a:ext cx="2681111" cy="834908"/>
+          <a:off x="2322154" y="11861261"/>
+          <a:ext cx="2667000" cy="836925"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 1848"/>
-            <a:gd name="adj2" fmla="val 99123"/>
-            <a:gd name="adj3" fmla="val -239612"/>
-            <a:gd name="adj4" fmla="val 111667"/>
+            <a:gd name="adj1" fmla="val 4645"/>
+            <a:gd name="adj2" fmla="val 100072"/>
+            <a:gd name="adj3" fmla="val 31906"/>
+            <a:gd name="adj4" fmla="val 113036"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -11996,101 +12427,25 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>BDT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テーブルの開始位置は、メモリアドレスの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>512BYTE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>境界に合わせるひつよう必要あり。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>199438</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>23048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>199438</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="線吹き出し 1 (枠付き) 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16286105" y="6902215"/>
-          <a:ext cx="2681111" cy="834908"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 46918"/>
-            <a:gd name="adj2" fmla="val -438"/>
-            <a:gd name="adj3" fmla="val 2641"/>
-            <a:gd name="adj4" fmla="val -18596"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t> ホストモードでは、</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>U1EP0</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>のレジスタのみ実行。</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>のレジスタのみ使用。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12100,15 +12455,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>376297</xdr:colOff>
+      <xdr:colOff>585107</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>82314</xdr:rowOff>
+      <xdr:rowOff>82313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>258704</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>84550</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12123,8 +12478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8419630" y="8725370"/>
-          <a:ext cx="2563518" cy="884180"/>
+          <a:off x="8586107" y="8750063"/>
+          <a:ext cx="2340597" cy="1972365"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14867,7 +15222,7 @@
   </sheetPr>
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
@@ -15802,13 +16157,13 @@
       <c r="P26" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="Q26" s="98" t="s">
+      <c r="Q26" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
       <c r="V26" s="33" t="s">
         <v>183</v>
       </c>
@@ -15836,13 +16191,13 @@
       <c r="P27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="99" t="s">
+      <c r="Q27" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
       <c r="V27" s="38" t="str">
         <f t="shared" ref="V27:V40" si="0">B10</f>
         <v>10K</v>
@@ -15891,11 +16246,11 @@
       <c r="N28" s="40"/>
       <c r="O28" s="41"/>
       <c r="P28" s="42"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
       <c r="V28" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15944,11 +16299,11 @@
       <c r="N29" s="40"/>
       <c r="O29" s="41"/>
       <c r="P29" s="42"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
       <c r="V29" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15991,13 +16346,13 @@
       <c r="P30" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="Q30" s="100" t="s">
+      <c r="Q30" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
       <c r="V30" s="43" t="str">
         <f t="shared" si="0"/>
         <v>PGD1</v>
@@ -16040,13 +16395,13 @@
       <c r="P31" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="Q31" s="100" t="s">
+      <c r="Q31" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
       <c r="V31" s="43" t="str">
         <f t="shared" si="0"/>
         <v>PGC1</v>
@@ -16087,11 +16442,11 @@
       <c r="N32" s="40"/>
       <c r="O32" s="41"/>
       <c r="P32" s="42"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
       <c r="V32" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16134,11 +16489,11 @@
       <c r="N33" s="40"/>
       <c r="O33" s="41"/>
       <c r="P33" s="42"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="100"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
       <c r="V33" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16167,13 +16522,13 @@
       <c r="P34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="99" t="s">
+      <c r="Q34" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="99"/>
-      <c r="U34" s="99"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
       <c r="V34" s="38" t="str">
         <f t="shared" si="0"/>
         <v>GND</v>
@@ -16210,13 +16565,13 @@
       <c r="N35" s="40"/>
       <c r="O35" s="41"/>
       <c r="P35" s="42"/>
-      <c r="Q35" s="100" t="s">
+      <c r="Q35" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="R35" s="100"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="100"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="105"/>
       <c r="V35" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OSCI</v>
@@ -16251,13 +16606,13 @@
       <c r="N36" s="40"/>
       <c r="O36" s="41"/>
       <c r="P36" s="42"/>
-      <c r="Q36" s="100" t="s">
+      <c r="Q36" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="R36" s="100"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="100"/>
+      <c r="R36" s="105"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="105"/>
       <c r="V36" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OSCO</v>
@@ -16294,13 +16649,13 @@
       <c r="N37" s="40"/>
       <c r="O37" s="41"/>
       <c r="P37" s="42"/>
-      <c r="Q37" s="100" t="s">
+      <c r="Q37" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="R37" s="100"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="100"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="105"/>
       <c r="V37" s="43" t="str">
         <f t="shared" si="0"/>
         <v>SOSCI</v>
@@ -16339,13 +16694,13 @@
       <c r="N38" s="40"/>
       <c r="O38" s="41"/>
       <c r="P38" s="42"/>
-      <c r="Q38" s="100" t="s">
+      <c r="Q38" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="100"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="105"/>
       <c r="V38" s="43" t="str">
         <f t="shared" si="0"/>
         <v>SOSCO</v>
@@ -16374,11 +16729,11 @@
       <c r="P39" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="99"/>
-      <c r="U39" s="99"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="104"/>
+      <c r="U39" s="104"/>
       <c r="V39" s="38" t="str">
         <f t="shared" si="0"/>
         <v>+3.3V</v>
@@ -16411,13 +16766,13 @@
       <c r="N40" s="40"/>
       <c r="O40" s="41"/>
       <c r="P40" s="42"/>
-      <c r="Q40" s="100" t="s">
+      <c r="Q40" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="R40" s="100"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
-      <c r="U40" s="100"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
       <c r="V40" s="43" t="str">
         <f t="shared" si="0"/>
         <v>LED1</v>
@@ -16446,11 +16801,11 @@
       <c r="P41" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
       <c r="V41" s="38" t="str">
         <f>Z23</f>
         <v>VBUS</v>
@@ -16487,11 +16842,11 @@
       <c r="N42" s="40"/>
       <c r="O42" s="41"/>
       <c r="P42" s="42"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100"/>
-      <c r="S42" s="100"/>
-      <c r="T42" s="100"/>
-      <c r="U42" s="100"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
+      <c r="S42" s="105"/>
+      <c r="T42" s="105"/>
+      <c r="U42" s="105"/>
       <c r="V42" s="43">
         <f>Z22</f>
         <v>0</v>
@@ -16532,13 +16887,13 @@
       <c r="P43" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="Q43" s="100" t="s">
+      <c r="Q43" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="R43" s="100"/>
-      <c r="S43" s="100"/>
-      <c r="T43" s="100"/>
-      <c r="U43" s="100"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="105"/>
       <c r="V43" s="43" t="str">
         <f>Z21</f>
         <v>TX(→RX)</v>
@@ -16579,13 +16934,13 @@
       <c r="P44" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="Q44" s="100" t="s">
+      <c r="Q44" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
+      <c r="R44" s="105"/>
+      <c r="S44" s="105"/>
+      <c r="T44" s="105"/>
+      <c r="U44" s="105"/>
       <c r="V44" s="43" t="str">
         <f>Z20</f>
         <v>RX(→TX)</v>
@@ -16614,13 +16969,13 @@
       <c r="P45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="99" t="s">
+      <c r="Q45" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="R45" s="99"/>
-      <c r="S45" s="99"/>
-      <c r="T45" s="99"/>
-      <c r="U45" s="99"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
       <c r="V45" s="38" t="str">
         <f>Z19</f>
         <v>GND</v>
@@ -16651,13 +17006,13 @@
       <c r="P46" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="99" t="s">
+      <c r="Q46" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="R46" s="99"/>
-      <c r="S46" s="99"/>
-      <c r="T46" s="99"/>
-      <c r="U46" s="99"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
+      <c r="U46" s="104"/>
       <c r="V46" s="38" t="str">
         <f>Z18</f>
         <v>10uF</v>
@@ -16741,13 +17096,13 @@
       <c r="P48" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="Q48" s="100" t="s">
+      <c r="Q48" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="105"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
       <c r="V48" s="43" t="str">
         <f>Z16</f>
         <v>D-(→D+)</v>
@@ -16776,11 +17131,11 @@
       <c r="P49" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="99"/>
-      <c r="S49" s="99"/>
-      <c r="T49" s="99"/>
-      <c r="U49" s="99"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="104"/>
+      <c r="S49" s="104"/>
+      <c r="T49" s="104"/>
+      <c r="U49" s="104"/>
       <c r="V49" s="38" t="str">
         <f>Z15</f>
         <v>+3.3V</v>
@@ -16821,11 +17176,11 @@
       <c r="N50" s="40"/>
       <c r="O50" s="41"/>
       <c r="P50" s="42"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="100"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="105"/>
+      <c r="S50" s="105"/>
+      <c r="T50" s="105"/>
+      <c r="U50" s="105"/>
       <c r="V50" s="43">
         <f>Z14</f>
         <v>0</v>
@@ -16866,11 +17221,11 @@
       <c r="N51" s="40"/>
       <c r="O51" s="41"/>
       <c r="P51" s="42"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="100"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
       <c r="V51" s="43">
         <f>Z13</f>
         <v>0</v>
@@ -16909,11 +17264,11 @@
       <c r="N52" s="40"/>
       <c r="O52" s="41"/>
       <c r="P52" s="42"/>
-      <c r="Q52" s="100"/>
-      <c r="R52" s="100"/>
-      <c r="S52" s="100"/>
-      <c r="T52" s="100"/>
-      <c r="U52" s="100"/>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="105"/>
+      <c r="S52" s="105"/>
+      <c r="T52" s="105"/>
+      <c r="U52" s="105"/>
       <c r="V52" s="43">
         <f>Z12</f>
         <v>0</v>
@@ -16942,13 +17297,13 @@
       <c r="P53" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q53" s="99" t="s">
+      <c r="Q53" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="R53" s="99"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="99"/>
-      <c r="U53" s="99"/>
+      <c r="R53" s="104"/>
+      <c r="S53" s="104"/>
+      <c r="T53" s="104"/>
+      <c r="U53" s="104"/>
       <c r="V53" s="38" t="str">
         <f>Z11</f>
         <v>GND</v>
@@ -16977,13 +17332,13 @@
       <c r="P54" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q54" s="99" t="s">
+      <c r="Q54" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="R54" s="99"/>
-      <c r="S54" s="99"/>
-      <c r="T54" s="99"/>
-      <c r="U54" s="99"/>
+      <c r="R54" s="104"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="104"/>
       <c r="V54" s="38" t="str">
         <f>Z10</f>
         <v>+3.3V</v>
@@ -19317,8 +19672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21144,91 +21499,334 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A78:AMK88"/>
+  <dimension ref="A93:AMK144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H27" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD48" sqref="AD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="8.75" style="72" customWidth="1"/>
+    <col min="1" max="1025" width="8.75" style="66" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E78" s="72" t="s">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E93" s="73" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E79" s="72" t="s">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E94" s="66" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E80" s="72">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E95" s="66">
         <v>44.3</v>
       </c>
-      <c r="F80" s="72" t="s">
+      <c r="F95" s="66" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E81" s="72">
-        <f>E80*1000</f>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E96" s="66">
+        <f>E95*1000</f>
         <v>44300</v>
       </c>
-      <c r="F81" s="72" t="s">
+      <c r="F96" s="66" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E82" s="72">
-        <f>E81*2*2</f>
+    <row r="97" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E97" s="66">
+        <f>E96*2*2</f>
         <v>177200</v>
       </c>
-      <c r="F82" s="72" t="s">
+      <c r="F97" s="66" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E83" s="72">
-        <f>E82/1000</f>
+    <row r="98" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E98" s="66">
+        <f>E97/1000</f>
         <v>177.2</v>
       </c>
-      <c r="F83" s="72" t="s">
+      <c r="F98" s="66" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E85" s="72" t="s">
+    <row r="100" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E100" s="66" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E86" s="72">
+    <row r="101" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E101" s="66">
         <v>12</v>
       </c>
-      <c r="F86" s="72" t="s">
+      <c r="F101" s="66" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E87" s="72">
-        <f>E86*1000000</f>
+    <row r="102" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E102" s="66">
+        <f>E101*1000000</f>
         <v>12000000</v>
       </c>
-      <c r="F87" s="72" t="s">
+      <c r="F102" s="66" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E88" s="72">
-        <f>E87/1000/8</f>
+    <row r="103" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E103" s="66">
+        <f>E102/1000/8</f>
         <v>1500</v>
       </c>
-      <c r="F88" s="72" t="s">
+      <c r="F103" s="66" t="s">
         <v>942</v>
+      </c>
+    </row>
+    <row r="108" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E108" s="73" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="109" spans="5:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="F109" s="98" t="s">
+        <v>956</v>
+      </c>
+      <c r="G109" s="99" t="s">
+        <v>957</v>
+      </c>
+      <c r="H109" s="100" t="s">
+        <v>958</v>
+      </c>
+      <c r="I109" s="101"/>
+      <c r="J109" s="100" t="s">
+        <v>959</v>
+      </c>
+      <c r="K109" s="101"/>
+      <c r="L109" s="100" t="s">
+        <v>960</v>
+      </c>
+      <c r="M109" s="101"/>
+      <c r="N109" s="66" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="110" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E110" s="102" t="s">
+        <v>946</v>
+      </c>
+      <c r="F110" s="66" t="s">
+        <v>947</v>
+      </c>
+      <c r="G110" s="66" t="s">
+        <v>948</v>
+      </c>
+      <c r="H110" s="76" t="s">
+        <v>949</v>
+      </c>
+      <c r="I110" s="66" t="s">
+        <v>950</v>
+      </c>
+      <c r="J110" s="66" t="s">
+        <v>950</v>
+      </c>
+      <c r="K110" s="66" t="s">
+        <v>950</v>
+      </c>
+      <c r="L110" s="66" t="s">
+        <v>950</v>
+      </c>
+      <c r="M110" s="66" t="s">
+        <v>951</v>
+      </c>
+      <c r="N110" s="66" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="112" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E112" s="73" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="113" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E113" s="102" t="s">
+        <v>946</v>
+      </c>
+      <c r="F113" s="66" t="s">
+        <v>947</v>
+      </c>
+      <c r="G113" s="66" t="s">
+        <v>953</v>
+      </c>
+      <c r="H113" s="76" t="s">
+        <v>949</v>
+      </c>
+      <c r="I113" s="66" t="s">
+        <v>950</v>
+      </c>
+      <c r="J113" s="66" t="s">
+        <v>950</v>
+      </c>
+      <c r="K113" s="66" t="s">
+        <v>950</v>
+      </c>
+      <c r="L113" s="66" t="s">
+        <v>950</v>
+      </c>
+      <c r="M113" s="66" t="s">
+        <v>951</v>
+      </c>
+      <c r="N113" s="66" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="116" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E116" s="66" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="117" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="F117" s="66" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="118" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G118" s="73" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="119" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G119" s="66" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="120" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="F120" s="66" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="121" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G121" s="73" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="122" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G122" s="66" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="123" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G123" s="66" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="124" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G124" s="66" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="125" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="F125" s="66" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="126" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G126" s="73" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="127" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G127" s="66" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="128" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="G128" s="66" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G129" s="66" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G130" s="66" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E131" s="66" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F132" s="66" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F133" s="66" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F134" s="66" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F135" s="66" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F136" s="66" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F137" s="73" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F138" s="66" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F139" s="66" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F140" s="66" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F141" s="73" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F142" s="66" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F143" s="66" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F144" s="66" t="s">
+        <v>990</v>
       </c>
     </row>
   </sheetData>
